--- a/docs/詳細設計書/詳細設計書_分類情報画面_MVC①.xlsx
+++ b/docs/詳細設計書/詳細設計書_分類情報画面_MVC①.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10916"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Kijima/Desktop/CTC/設計/分類情報管理/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\digitalOJT\digital-ojt-development-cause-DroneInventorySystem\docs\詳細設計書\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F9C20496-C8FF-F64E-B611-CAAF98DC2975}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76C37F5-F11D-4160-BAC3-6B11A65FFF46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-4300" yWindow="-21600" windowWidth="38400" windowHeight="21600" activeTab="1" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
+    <workbookView xWindow="-14640" yWindow="-16320" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{94E1F5D5-5A75-8F40-A2A1-CC833EFCF558}"/>
   </bookViews>
   <sheets>
     <sheet name="機能概要" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="49">
   <si>
     <t>システム名</t>
     <phoneticPr fontId="1"/>
@@ -205,13 +205,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>処理</t>
-    <rPh sb="0" eb="2">
-      <t>ショリ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>処理詳細</t>
     <rPh sb="0" eb="4">
       <t>ショリ</t>
@@ -257,34 +250,6 @@
     </rPh>
     <rPh sb="7" eb="9">
       <t>ジョウホウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>分類情報の一覧の確認および、分類情報の新規作成/更新/削除が行える。</t>
-    <rPh sb="0" eb="2">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>ジョウホウ</t>
-    </rPh>
-    <rPh sb="5" eb="7">
-      <t>イチラn</t>
-    </rPh>
-    <rPh sb="14" eb="18">
-      <t>ブンルイ</t>
-    </rPh>
-    <rPh sb="19" eb="23">
-      <t>シンキ</t>
-    </rPh>
-    <rPh sb="24" eb="26">
-      <t>コウシn</t>
-    </rPh>
-    <rPh sb="27" eb="29">
-      <t>サクゼィオ</t>
-    </rPh>
-    <rPh sb="30" eb="31">
-      <t>オコナエ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -371,12 +336,78 @@
     <t>IT01F003</t>
     <phoneticPr fontId="1"/>
   </si>
+  <si>
+    <t>1. 初期表示</t>
+  </si>
+  <si>
+    <t>CTC道菅</t>
+    <rPh sb="3" eb="5">
+      <t>ドウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>分類情報の一覧の確認が行える。</t>
+    <rPh sb="0" eb="2">
+      <t>ブンルイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウホウ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>イチラn</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>オコナエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <r>
+      <t>Hello World</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="2"/>
+        <charset val="128"/>
+      </rPr>
+      <t>を表示させる</t>
+    </r>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理詳細記述</t>
+    <rPh sb="0" eb="6">
+      <t>ショリショウサイキジュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>機能概要修正</t>
+    <rPh sb="0" eb="6">
+      <t>キノウガイヨウシュウセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>処理</t>
+    <rPh sb="0" eb="2">
+      <t>ショリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="12">
+  <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -459,6 +490,13 @@
       <sz val="16"/>
       <color rgb="FF000000"/>
       <name val="メイリオ"/>
+      <family val="2"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
       <family val="2"/>
       <charset val="128"/>
     </font>
@@ -623,7 +661,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="105">
+  <cellXfs count="104">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -735,69 +773,69 @@
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -831,8 +869,101 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -840,103 +971,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="4" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="8" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="9" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1335,267 +1370,271 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A36A9F4-38DA-8548-94CF-E223071B437C}">
   <dimension ref="A1:AO33"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+    <sheetView showGridLines="0" view="pageBreakPreview" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="AM8" sqref="AM8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="16384" width="3.7109375" style="2"/>
+    <col min="1" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="41" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="57">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="38">
         <v>45566</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="41" t="s">
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="41" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="38" t="s">
-        <v>38</v>
-      </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="41" t="s">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="55" t="s">
+        <v>36</v>
+      </c>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="43" t="s">
         <v>5</v>
       </c>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="41" t="s">
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="55" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="41" t="s">
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="38">
+        <v>45607</v>
+      </c>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="43" t="s">
         <v>2</v>
       </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="55" t="s">
+        <v>41</v>
+      </c>
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="37" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39"/>
-      <c r="M5" s="39"/>
-      <c r="N5" s="39"/>
-      <c r="O5" s="39"/>
-      <c r="P5" s="39"/>
-      <c r="Q5" s="39"/>
-      <c r="R5" s="39"/>
-      <c r="S5" s="39"/>
-      <c r="T5" s="39"/>
-      <c r="U5" s="39"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39" t="s">
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
+      <c r="D5" s="37"/>
+      <c r="E5" s="37"/>
+      <c r="F5" s="37"/>
+      <c r="G5" s="37"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
+      <c r="J5" s="37"/>
+      <c r="K5" s="37"/>
+      <c r="L5" s="37"/>
+      <c r="M5" s="37"/>
+      <c r="N5" s="37"/>
+      <c r="O5" s="37"/>
+      <c r="P5" s="37"/>
+      <c r="Q5" s="37"/>
+      <c r="R5" s="37"/>
+      <c r="S5" s="37"/>
+      <c r="T5" s="37"/>
+      <c r="U5" s="37"/>
+      <c r="V5" s="37"/>
+      <c r="W5" s="37" t="s">
         <v>8</v>
       </c>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-      <c r="AM5" s="39" t="s">
+      <c r="X5" s="37"/>
+      <c r="Y5" s="37"/>
+      <c r="Z5" s="37"/>
+      <c r="AA5" s="37"/>
+      <c r="AB5" s="37"/>
+      <c r="AC5" s="37"/>
+      <c r="AD5" s="37"/>
+      <c r="AE5" s="37"/>
+      <c r="AF5" s="37"/>
+      <c r="AG5" s="37"/>
+      <c r="AH5" s="37"/>
+      <c r="AI5" s="37"/>
+      <c r="AJ5" s="37"/>
+      <c r="AK5" s="37"/>
+      <c r="AL5" s="37"/>
+      <c r="AM5" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AN5" s="39"/>
-      <c r="AO5" s="39"/>
-    </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
+      <c r="AN5" s="37"/>
+      <c r="AO5" s="37"/>
+    </row>
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -1619,7 +1658,7 @@
       <c r="U6" s="4"/>
       <c r="V6" s="5"/>
       <c r="W6" s="21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="X6" s="12"/>
       <c r="Y6" s="12"/>
@@ -1640,11 +1679,11 @@
       <c r="AN6" s="4"/>
       <c r="AO6" s="5"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="6"/>
       <c r="V7" s="7"/>
       <c r="W7" s="22" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="X7" s="1"/>
       <c r="Y7" s="1"/>
@@ -1661,16 +1700,18 @@
       <c r="AJ7" s="1"/>
       <c r="AK7" s="1"/>
       <c r="AL7" s="14"/>
-      <c r="AM7" s="6"/>
+      <c r="AM7" s="6" t="s">
+        <v>47</v>
+      </c>
       <c r="AO7" s="7"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="6"/>
       <c r="V8" s="7"/>
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="6"/>
       <c r="V9" s="7"/>
       <c r="W9" s="22"/>
@@ -1692,7 +1733,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="6"/>
       <c r="V10" s="7"/>
       <c r="W10" s="22"/>
@@ -1714,7 +1755,7 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="6"/>
       <c r="V11" s="7"/>
       <c r="W11" s="22"/>
@@ -1736,7 +1777,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="6"/>
       <c r="V12" s="7"/>
       <c r="W12" s="22"/>
@@ -1758,7 +1799,7 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="6"/>
       <c r="V13" s="7"/>
       <c r="W13" s="22"/>
@@ -1780,7 +1821,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="6"/>
       <c r="V14" s="7"/>
       <c r="W14" s="22"/>
@@ -1802,7 +1843,7 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="6"/>
       <c r="V15" s="7"/>
       <c r="W15" s="22"/>
@@ -1824,7 +1865,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="6"/>
       <c r="V16" s="7"/>
       <c r="W16" s="22"/>
@@ -1846,7 +1887,7 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="6"/>
       <c r="V17" s="7"/>
       <c r="W17" s="22"/>
@@ -1868,7 +1909,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="6"/>
       <c r="V18" s="7"/>
       <c r="W18" s="22"/>
@@ -1890,7 +1931,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
@@ -1933,25 +1974,25 @@
       <c r="AN19" s="9"/>
       <c r="AO19" s="10"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="39" t="s">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B20" s="39"/>
-      <c r="C20" s="46" t="s">
+      <c r="B20" s="37"/>
+      <c r="C20" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="39" t="s">
+      <c r="D20" s="45"/>
+      <c r="E20" s="45"/>
+      <c r="F20" s="45"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="45"/>
+      <c r="J20" s="45"/>
+      <c r="K20" s="37" t="s">
         <v>13</v>
       </c>
-      <c r="L20" s="39"/>
+      <c r="L20" s="37"/>
       <c r="M20" s="24" t="s">
         <v>14</v>
       </c>
@@ -1964,39 +2005,39 @@
       <c r="P20" s="24" t="s">
         <v>17</v>
       </c>
-      <c r="Q20" s="46" t="s">
+      <c r="Q20" s="44" t="s">
         <v>18</v>
       </c>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-    </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="38">
+      <c r="R20" s="45"/>
+      <c r="S20" s="45"/>
+      <c r="T20" s="45"/>
+      <c r="U20" s="45"/>
+      <c r="V20" s="45"/>
+      <c r="W20" s="45"/>
+      <c r="X20" s="45"/>
+      <c r="Y20" s="45"/>
+      <c r="Z20" s="45"/>
+      <c r="AA20" s="45"/>
+      <c r="AB20" s="45"/>
+      <c r="AC20" s="45"/>
+      <c r="AD20" s="45"/>
+      <c r="AE20" s="45"/>
+      <c r="AF20" s="45"/>
+      <c r="AG20" s="45"/>
+      <c r="AH20" s="45"/>
+      <c r="AI20" s="45"/>
+      <c r="AJ20" s="45"/>
+      <c r="AK20" s="45"/>
+      <c r="AL20" s="45"/>
+      <c r="AM20" s="45"/>
+      <c r="AN20" s="45"/>
+      <c r="AO20" s="45"/>
+    </row>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="55">
         <v>1</v>
       </c>
-      <c r="B21" s="40"/>
+      <c r="B21" s="56"/>
       <c r="C21" s="17"/>
       <c r="D21" s="18"/>
       <c r="E21" s="18"/>
@@ -2005,8 +2046,8 @@
       <c r="H21" s="18"/>
       <c r="I21" s="18"/>
       <c r="J21" s="18"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
+      <c r="K21" s="55"/>
+      <c r="L21" s="55"/>
       <c r="M21" s="20"/>
       <c r="N21" s="20"/>
       <c r="O21" s="20"/>
@@ -2037,9 +2078,9 @@
       <c r="AN21" s="18"/>
       <c r="AO21" s="19"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="40"/>
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="55"/>
+      <c r="B22" s="56"/>
       <c r="C22" s="17"/>
       <c r="D22" s="18"/>
       <c r="E22" s="18"/>
@@ -2048,8 +2089,8 @@
       <c r="H22" s="18"/>
       <c r="I22" s="18"/>
       <c r="J22" s="18"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
+      <c r="K22" s="55"/>
+      <c r="L22" s="55"/>
       <c r="M22" s="20"/>
       <c r="N22" s="20"/>
       <c r="O22" s="20"/>
@@ -2080,9 +2121,9 @@
       <c r="AN22" s="18"/>
       <c r="AO22" s="19"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
-      <c r="A23" s="38"/>
-      <c r="B23" s="40"/>
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="55"/>
+      <c r="B23" s="56"/>
       <c r="C23" s="17"/>
       <c r="D23" s="18"/>
       <c r="E23" s="18"/>
@@ -2091,8 +2132,8 @@
       <c r="H23" s="18"/>
       <c r="I23" s="18"/>
       <c r="J23" s="18"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
+      <c r="K23" s="55"/>
+      <c r="L23" s="55"/>
       <c r="M23" s="20"/>
       <c r="N23" s="20"/>
       <c r="O23" s="20"/>
@@ -2123,9 +2164,9 @@
       <c r="AN23" s="18"/>
       <c r="AO23" s="19"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
-      <c r="A24" s="38"/>
-      <c r="B24" s="38"/>
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="55"/>
+      <c r="B24" s="55"/>
       <c r="C24" s="17"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2134,8 +2175,8 @@
       <c r="H24" s="18"/>
       <c r="I24" s="18"/>
       <c r="J24" s="18"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
+      <c r="K24" s="55"/>
+      <c r="L24" s="55"/>
       <c r="M24" s="20"/>
       <c r="N24" s="20"/>
       <c r="O24" s="20"/>
@@ -2166,9 +2207,9 @@
       <c r="AN24" s="18"/>
       <c r="AO24" s="19"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
-      <c r="A25" s="38"/>
-      <c r="B25" s="38"/>
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="55"/>
+      <c r="B25" s="55"/>
       <c r="C25" s="17"/>
       <c r="D25" s="18"/>
       <c r="E25" s="18"/>
@@ -2177,8 +2218,8 @@
       <c r="H25" s="18"/>
       <c r="I25" s="18"/>
       <c r="J25" s="18"/>
-      <c r="K25" s="38"/>
-      <c r="L25" s="38"/>
+      <c r="K25" s="55"/>
+      <c r="L25" s="55"/>
       <c r="M25" s="20"/>
       <c r="N25" s="20"/>
       <c r="O25" s="20"/>
@@ -2209,9 +2250,9 @@
       <c r="AN25" s="18"/>
       <c r="AO25" s="19"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
-      <c r="A26" s="38"/>
-      <c r="B26" s="38"/>
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="55"/>
+      <c r="B26" s="55"/>
       <c r="C26" s="17"/>
       <c r="D26" s="18"/>
       <c r="E26" s="18"/>
@@ -2220,8 +2261,8 @@
       <c r="H26" s="18"/>
       <c r="I26" s="18"/>
       <c r="J26" s="18"/>
-      <c r="K26" s="38"/>
-      <c r="L26" s="38"/>
+      <c r="K26" s="55"/>
+      <c r="L26" s="55"/>
       <c r="M26" s="20"/>
       <c r="N26" s="20"/>
       <c r="O26" s="20"/>
@@ -2252,9 +2293,9 @@
       <c r="AN26" s="18"/>
       <c r="AO26" s="19"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
-      <c r="A27" s="38"/>
-      <c r="B27" s="38"/>
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="55"/>
+      <c r="B27" s="55"/>
       <c r="C27" s="17"/>
       <c r="D27" s="18"/>
       <c r="E27" s="18"/>
@@ -2263,8 +2304,8 @@
       <c r="H27" s="18"/>
       <c r="I27" s="18"/>
       <c r="J27" s="18"/>
-      <c r="K27" s="38"/>
-      <c r="L27" s="38"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="55"/>
       <c r="M27" s="20"/>
       <c r="N27" s="20"/>
       <c r="O27" s="20"/>
@@ -2295,9 +2336,9 @@
       <c r="AN27" s="18"/>
       <c r="AO27" s="19"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
-      <c r="A28" s="38"/>
-      <c r="B28" s="38"/>
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="55"/>
+      <c r="B28" s="55"/>
       <c r="C28" s="17"/>
       <c r="D28" s="18"/>
       <c r="E28" s="18"/>
@@ -2306,8 +2347,8 @@
       <c r="H28" s="18"/>
       <c r="I28" s="18"/>
       <c r="J28" s="18"/>
-      <c r="K28" s="38"/>
-      <c r="L28" s="38"/>
+      <c r="K28" s="55"/>
+      <c r="L28" s="55"/>
       <c r="M28" s="20"/>
       <c r="N28" s="20"/>
       <c r="O28" s="20"/>
@@ -2338,9 +2379,9 @@
       <c r="AN28" s="18"/>
       <c r="AO28" s="19"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
-      <c r="A29" s="38"/>
-      <c r="B29" s="38"/>
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="55"/>
+      <c r="B29" s="55"/>
       <c r="C29" s="17"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2349,8 +2390,8 @@
       <c r="H29" s="18"/>
       <c r="I29" s="18"/>
       <c r="J29" s="18"/>
-      <c r="K29" s="38"/>
-      <c r="L29" s="38"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="55"/>
       <c r="M29" s="20"/>
       <c r="N29" s="20"/>
       <c r="O29" s="20"/>
@@ -2381,9 +2422,9 @@
       <c r="AN29" s="18"/>
       <c r="AO29" s="19"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
-      <c r="A30" s="38"/>
-      <c r="B30" s="38"/>
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="55"/>
+      <c r="B30" s="55"/>
       <c r="C30" s="17"/>
       <c r="D30" s="18"/>
       <c r="E30" s="18"/>
@@ -2392,8 +2433,8 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
       <c r="J30" s="18"/>
-      <c r="K30" s="38"/>
-      <c r="L30" s="38"/>
+      <c r="K30" s="55"/>
+      <c r="L30" s="55"/>
       <c r="M30" s="20"/>
       <c r="N30" s="20"/>
       <c r="O30" s="20"/>
@@ -2424,9 +2465,9 @@
       <c r="AN30" s="18"/>
       <c r="AO30" s="19"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
-      <c r="A31" s="38"/>
-      <c r="B31" s="38"/>
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="55"/>
+      <c r="B31" s="55"/>
       <c r="C31" s="17"/>
       <c r="D31" s="18"/>
       <c r="E31" s="18"/>
@@ -2435,8 +2476,8 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
       <c r="J31" s="18"/>
-      <c r="K31" s="38"/>
-      <c r="L31" s="38"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="55"/>
       <c r="M31" s="20"/>
       <c r="N31" s="20"/>
       <c r="O31" s="20"/>
@@ -2467,9 +2508,9 @@
       <c r="AN31" s="18"/>
       <c r="AO31" s="19"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
-      <c r="A32" s="38"/>
-      <c r="B32" s="38"/>
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="55"/>
+      <c r="B32" s="55"/>
       <c r="C32" s="17"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2478,8 +2519,8 @@
       <c r="H32" s="18"/>
       <c r="I32" s="18"/>
       <c r="J32" s="18"/>
-      <c r="K32" s="38"/>
-      <c r="L32" s="38"/>
+      <c r="K32" s="55"/>
+      <c r="L32" s="55"/>
       <c r="M32" s="20"/>
       <c r="N32" s="20"/>
       <c r="O32" s="20"/>
@@ -2510,9 +2551,9 @@
       <c r="AN32" s="18"/>
       <c r="AO32" s="19"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
-      <c r="A33" s="37"/>
-      <c r="B33" s="37"/>
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="57"/>
+      <c r="B33" s="57"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
@@ -2555,6 +2596,39 @@
     </row>
   </sheetData>
   <mergeCells count="49">
+    <mergeCell ref="A33:B33"/>
+    <mergeCell ref="K24:L24"/>
+    <mergeCell ref="K26:L26"/>
+    <mergeCell ref="A29:B29"/>
+    <mergeCell ref="A30:B30"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A32:B32"/>
+    <mergeCell ref="K25:L25"/>
+    <mergeCell ref="K27:L27"/>
+    <mergeCell ref="A28:B28"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A26:B26"/>
+    <mergeCell ref="A27:B27"/>
+    <mergeCell ref="K30:L30"/>
+    <mergeCell ref="K32:L32"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="K20:L20"/>
+    <mergeCell ref="K31:L31"/>
+    <mergeCell ref="K29:L29"/>
+    <mergeCell ref="K28:L28"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="K21:L21"/>
+    <mergeCell ref="K23:L23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="K22:L22"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="AE3:AH4"/>
+    <mergeCell ref="AI1:AK2"/>
+    <mergeCell ref="AI3:AK4"/>
+    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="T3:AA3"/>
     <mergeCell ref="W5:AL5"/>
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="T1:AA1"/>
@@ -2571,44 +2645,11 @@
     <mergeCell ref="O1:S1"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="AL1:AO2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="AE3:AH4"/>
-    <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="AI3:AK4"/>
-    <mergeCell ref="T4:AA4"/>
-    <mergeCell ref="T3:AA3"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="K20:L20"/>
-    <mergeCell ref="K31:L31"/>
-    <mergeCell ref="K29:L29"/>
-    <mergeCell ref="K28:L28"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="K21:L21"/>
-    <mergeCell ref="K23:L23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="K22:L22"/>
-    <mergeCell ref="A33:B33"/>
-    <mergeCell ref="K24:L24"/>
-    <mergeCell ref="K26:L26"/>
-    <mergeCell ref="A29:B29"/>
-    <mergeCell ref="A30:B30"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A32:B32"/>
-    <mergeCell ref="K25:L25"/>
-    <mergeCell ref="K27:L27"/>
-    <mergeCell ref="A28:B28"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A26:B26"/>
-    <mergeCell ref="A27:B27"/>
-    <mergeCell ref="K30:L30"/>
-    <mergeCell ref="K32:L32"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -2619,238 +2660,238 @@
   </sheetPr>
   <dimension ref="A1:AO57"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <selection sqref="A1:N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="8" width="3.7109375" style="2"/>
-    <col min="9" max="9" width="3.7109375" style="2" customWidth="1"/>
+    <col min="1" max="8" width="3.7265625" style="2"/>
+    <col min="9" max="9" width="3.7265625" style="2" customWidth="1"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="41" t="s">
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="41" t="s">
+      <c r="P1" s="43"/>
+      <c r="Q1" s="43"/>
+      <c r="R1" s="43"/>
+      <c r="S1" s="43"/>
+      <c r="T1" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="41" t="s">
+      <c r="AC1" s="43"/>
+      <c r="AD1" s="43"/>
+      <c r="AE1" s="55" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="55"/>
+      <c r="AG1" s="55"/>
+      <c r="AH1" s="55"/>
+      <c r="AI1" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="41"/>
-      <c r="AK1" s="41"/>
-      <c r="AL1" s="57">
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="38">
         <v>45566</v>
       </c>
-      <c r="AM1" s="42"/>
-      <c r="AN1" s="42"/>
-      <c r="AO1" s="42"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
-      <c r="J2" s="52"/>
-      <c r="K2" s="52"/>
-      <c r="L2" s="52"/>
-      <c r="M2" s="52"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="41" t="s">
+      <c r="AM1" s="39"/>
+      <c r="AN1" s="39"/>
+      <c r="AO1" s="39"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="49"/>
+      <c r="B2" s="50"/>
+      <c r="C2" s="50"/>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="50"/>
+      <c r="H2" s="50"/>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+      <c r="L2" s="50"/>
+      <c r="M2" s="50"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="41"/>
-      <c r="Q2" s="41"/>
-      <c r="R2" s="41"/>
-      <c r="S2" s="41"/>
-      <c r="T2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="41"/>
-      <c r="AC2" s="41"/>
-      <c r="AD2" s="41"/>
-      <c r="AE2" s="38"/>
-      <c r="AF2" s="38"/>
-      <c r="AG2" s="38"/>
-      <c r="AH2" s="38"/>
-      <c r="AI2" s="41"/>
-      <c r="AJ2" s="41"/>
-      <c r="AK2" s="41"/>
-      <c r="AL2" s="42"/>
-      <c r="AM2" s="42"/>
-      <c r="AN2" s="42"/>
-      <c r="AO2" s="42"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="52"/>
-      <c r="C3" s="52"/>
-      <c r="D3" s="52"/>
-      <c r="E3" s="52"/>
-      <c r="F3" s="52"/>
-      <c r="G3" s="52"/>
-      <c r="H3" s="52"/>
-      <c r="I3" s="52"/>
-      <c r="J3" s="52"/>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
-      <c r="M3" s="52"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="41" t="s">
+      <c r="P2" s="43"/>
+      <c r="Q2" s="43"/>
+      <c r="R2" s="43"/>
+      <c r="S2" s="43"/>
+      <c r="T2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="43"/>
+      <c r="AC2" s="43"/>
+      <c r="AD2" s="43"/>
+      <c r="AE2" s="55"/>
+      <c r="AF2" s="55"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="43"/>
+      <c r="AJ2" s="43"/>
+      <c r="AK2" s="43"/>
+      <c r="AL2" s="39"/>
+      <c r="AM2" s="39"/>
+      <c r="AN2" s="39"/>
+      <c r="AO2" s="39"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="49"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="50"/>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="50"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="43" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="38" t="s">
+      <c r="P3" s="43"/>
+      <c r="Q3" s="43"/>
+      <c r="R3" s="43"/>
+      <c r="S3" s="43"/>
+      <c r="T3" s="55" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="55"/>
+      <c r="V3" s="55"/>
+      <c r="W3" s="55"/>
+      <c r="X3" s="55"/>
+      <c r="Y3" s="55"/>
+      <c r="Z3" s="55"/>
+      <c r="AA3" s="55"/>
+      <c r="AB3" s="43" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="43"/>
+      <c r="AD3" s="43"/>
+      <c r="AE3" s="55"/>
+      <c r="AF3" s="55"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="55"/>
+      <c r="AI3" s="43" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="43"/>
+      <c r="AK3" s="43"/>
+      <c r="AL3" s="39"/>
+      <c r="AM3" s="39"/>
+      <c r="AN3" s="39"/>
+      <c r="AO3" s="39"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="43" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="43"/>
+      <c r="Q4" s="43"/>
+      <c r="R4" s="43"/>
+      <c r="S4" s="43"/>
+      <c r="T4" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="41" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="41" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="42"/>
-      <c r="AM3" s="42"/>
-      <c r="AN3" s="42"/>
-      <c r="AO3" s="42"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="41" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="41"/>
-      <c r="Q4" s="41"/>
-      <c r="R4" s="41"/>
-      <c r="S4" s="41"/>
-      <c r="T4" s="38" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="38"/>
-      <c r="X4" s="38"/>
-      <c r="Y4" s="38"/>
-      <c r="Z4" s="38"/>
-      <c r="AA4" s="38"/>
-      <c r="AB4" s="41"/>
-      <c r="AC4" s="41"/>
-      <c r="AD4" s="41"/>
-      <c r="AE4" s="38"/>
-      <c r="AF4" s="38"/>
-      <c r="AG4" s="38"/>
-      <c r="AH4" s="38"/>
-      <c r="AI4" s="41"/>
-      <c r="AJ4" s="41"/>
-      <c r="AK4" s="41"/>
-      <c r="AL4" s="42"/>
-      <c r="AM4" s="42"/>
-      <c r="AN4" s="42"/>
-      <c r="AO4" s="42"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="39" t="s">
+      <c r="U4" s="55"/>
+      <c r="V4" s="55"/>
+      <c r="W4" s="55"/>
+      <c r="X4" s="55"/>
+      <c r="Y4" s="55"/>
+      <c r="Z4" s="55"/>
+      <c r="AA4" s="55"/>
+      <c r="AB4" s="43"/>
+      <c r="AC4" s="43"/>
+      <c r="AD4" s="43"/>
+      <c r="AE4" s="55"/>
+      <c r="AF4" s="55"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="55"/>
+      <c r="AI4" s="43"/>
+      <c r="AJ4" s="43"/>
+      <c r="AK4" s="43"/>
+      <c r="AL4" s="39"/>
+      <c r="AM4" s="39"/>
+      <c r="AN4" s="39"/>
+      <c r="AO4" s="39"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="39"/>
-      <c r="C5" s="39"/>
+      <c r="B5" s="37"/>
+      <c r="C5" s="37"/>
       <c r="D5" s="65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="67"/>
-      <c r="G5" s="39" t="s">
+      <c r="G5" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="37"/>
       <c r="J5" s="64" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="64"/>
       <c r="L5" s="64"/>
@@ -2884,54 +2925,54 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="44" t="s">
         <v>22</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
-      <c r="G6" s="47"/>
-      <c r="H6" s="47"/>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
-      <c r="AE6" s="47"/>
-      <c r="AF6" s="47"/>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
+      <c r="AE6" s="45"/>
+      <c r="AF6" s="45"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
       <c r="AL6" s="68"/>
-      <c r="AM6" s="39" t="s">
+      <c r="AM6" s="37" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="39"/>
-      <c r="AO6" s="39"/>
-    </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
+      <c r="AN6" s="37"/>
+      <c r="AO6" s="37"/>
+    </row>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="21"/>
       <c r="B7" s="12"/>
       <c r="C7" s="12"/>
@@ -2974,10 +3015,10 @@
       <c r="AN7" s="4"/>
       <c r="AO7" s="5"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A8" s="22"/>
       <c r="B8" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
@@ -3018,11 +3059,11 @@
       <c r="AM8" s="6"/>
       <c r="AO8" s="7"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A9" s="22"/>
       <c r="B9" s="1"/>
       <c r="C9" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="59"/>
       <c r="E9" s="59"/>
@@ -3062,7 +3103,7 @@
       <c r="AM9" s="6"/>
       <c r="AO9" s="7"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A10" s="22"/>
       <c r="B10" s="1"/>
       <c r="C10" s="61"/>
@@ -3104,17 +3145,17 @@
       <c r="AM10" s="6"/>
       <c r="AO10" s="7"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="22"/>
       <c r="B11" s="1"/>
       <c r="C11" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
       <c r="F11" s="14"/>
       <c r="G11" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3150,7 +3191,7 @@
       <c r="AM11" s="6"/>
       <c r="AO11" s="7"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A12" s="22"/>
       <c r="B12" s="1"/>
       <c r="C12" s="22"/>
@@ -3192,11 +3233,11 @@
       <c r="AM12" s="6"/>
       <c r="AO12" s="7"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="22"/>
       <c r="B13" s="1"/>
       <c r="C13" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -3236,7 +3277,7 @@
       <c r="AM13" s="6"/>
       <c r="AO13" s="7"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A14" s="22"/>
       <c r="B14" s="1"/>
       <c r="C14" s="22"/>
@@ -3278,11 +3319,11 @@
       <c r="AM14" s="6"/>
       <c r="AO14" s="7"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A15" s="22"/>
       <c r="B15" s="1"/>
       <c r="C15" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
@@ -3322,7 +3363,7 @@
       <c r="AM15" s="6"/>
       <c r="AO15" s="7"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="22"/>
       <c r="B16" s="1"/>
       <c r="C16" s="22"/>
@@ -3364,11 +3405,11 @@
       <c r="AM16" s="6"/>
       <c r="AO16" s="7"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="22"/>
       <c r="B17" s="1"/>
       <c r="C17" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
@@ -3408,7 +3449,7 @@
       <c r="AM17" s="6"/>
       <c r="AO17" s="7"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="22"/>
       <c r="B18" s="1"/>
       <c r="C18" s="22"/>
@@ -3450,7 +3491,7 @@
       <c r="AM18" s="6"/>
       <c r="AO18" s="7"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A19" s="22"/>
       <c r="B19" s="1"/>
       <c r="C19" s="22"/>
@@ -3492,7 +3533,7 @@
       <c r="AM19" s="6"/>
       <c r="AO19" s="7"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A20" s="22"/>
       <c r="B20" s="1"/>
       <c r="C20" s="22"/>
@@ -3534,7 +3575,7 @@
       <c r="AM20" s="6"/>
       <c r="AO20" s="7"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A21" s="22"/>
       <c r="B21" s="1"/>
       <c r="C21" s="22"/>
@@ -3576,7 +3617,7 @@
       <c r="AM21" s="6"/>
       <c r="AO21" s="7"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A22" s="22"/>
       <c r="B22" s="1"/>
       <c r="C22" s="22"/>
@@ -3618,7 +3659,7 @@
       <c r="AM22" s="6"/>
       <c r="AO22" s="7"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A23" s="22"/>
       <c r="B23" s="1"/>
       <c r="C23" s="22"/>
@@ -3660,7 +3701,7 @@
       <c r="AM23" s="6"/>
       <c r="AO23" s="7"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A24" s="22"/>
       <c r="B24" s="1"/>
       <c r="C24" s="22"/>
@@ -3702,7 +3743,7 @@
       <c r="AM24" s="6"/>
       <c r="AO24" s="7"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A25" s="22"/>
       <c r="B25" s="1"/>
       <c r="C25" s="22"/>
@@ -3744,7 +3785,7 @@
       <c r="AM25" s="6"/>
       <c r="AO25" s="7"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A26" s="22"/>
       <c r="B26" s="1"/>
       <c r="C26" s="22"/>
@@ -3786,7 +3827,7 @@
       <c r="AM26" s="6"/>
       <c r="AO26" s="7"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A27" s="22"/>
       <c r="B27" s="1"/>
       <c r="C27" s="22"/>
@@ -3828,7 +3869,7 @@
       <c r="AM27" s="6"/>
       <c r="AO27" s="7"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A28" s="22"/>
       <c r="B28" s="1"/>
       <c r="C28" s="22"/>
@@ -3870,7 +3911,7 @@
       <c r="AM28" s="6"/>
       <c r="AO28" s="7"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A29" s="22"/>
       <c r="B29" s="1"/>
       <c r="C29" s="22"/>
@@ -3912,7 +3953,7 @@
       <c r="AM29" s="6"/>
       <c r="AO29" s="7"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A30" s="22"/>
       <c r="B30" s="26"/>
       <c r="C30" s="33"/>
@@ -3954,7 +3995,7 @@
       <c r="AM30" s="6"/>
       <c r="AO30" s="7"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A31" s="22"/>
       <c r="B31" s="26"/>
       <c r="C31" s="26"/>
@@ -3996,10 +4037,10 @@
       <c r="AM31" s="6"/>
       <c r="AO31" s="7"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A32" s="22"/>
       <c r="B32" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4040,11 +4081,11 @@
       <c r="AM32" s="6"/>
       <c r="AO32" s="7"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A33" s="22"/>
       <c r="B33" s="1"/>
       <c r="C33" s="58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D33" s="59"/>
       <c r="E33" s="59"/>
@@ -4084,7 +4125,7 @@
       <c r="AM33" s="6"/>
       <c r="AO33" s="7"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A34" s="22"/>
       <c r="B34" s="1"/>
       <c r="C34" s="61"/>
@@ -4126,17 +4167,17 @@
       <c r="AM34" s="6"/>
       <c r="AO34" s="7"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A35" s="22"/>
       <c r="B35" s="1"/>
       <c r="C35" s="22" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="14"/>
       <c r="G35" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="H35" s="1"/>
       <c r="I35" s="1"/>
@@ -4172,7 +4213,7 @@
       <c r="AM35" s="6"/>
       <c r="AO35" s="7"/>
     </row>
-    <row r="36" spans="1:41" ht="20" customHeight="1">
+    <row r="36" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A36" s="22"/>
       <c r="B36" s="1"/>
       <c r="C36" s="22"/>
@@ -4214,11 +4255,11 @@
       <c r="AM36" s="6"/>
       <c r="AO36" s="7"/>
     </row>
-    <row r="37" spans="1:41" ht="20" customHeight="1">
+    <row r="37" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A37" s="22"/>
       <c r="B37" s="1"/>
       <c r="C37" s="22" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
@@ -4258,7 +4299,7 @@
       <c r="AM37" s="6"/>
       <c r="AO37" s="7"/>
     </row>
-    <row r="38" spans="1:41" ht="20" customHeight="1">
+    <row r="38" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A38" s="22"/>
       <c r="B38" s="1"/>
       <c r="C38" s="22"/>
@@ -4300,11 +4341,11 @@
       <c r="AM38" s="6"/>
       <c r="AO38" s="7"/>
     </row>
-    <row r="39" spans="1:41" ht="20" customHeight="1">
+    <row r="39" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A39" s="22"/>
       <c r="B39" s="1"/>
       <c r="C39" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
@@ -4344,7 +4385,7 @@
       <c r="AM39" s="6"/>
       <c r="AO39" s="7"/>
     </row>
-    <row r="40" spans="1:41" ht="20" customHeight="1">
+    <row r="40" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A40" s="22"/>
       <c r="B40" s="1"/>
       <c r="C40" s="22"/>
@@ -4386,11 +4427,11 @@
       <c r="AM40" s="6"/>
       <c r="AO40" s="7"/>
     </row>
-    <row r="41" spans="1:41" ht="20" customHeight="1">
+    <row r="41" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A41" s="22"/>
       <c r="B41" s="1"/>
       <c r="C41" s="22" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
@@ -4430,7 +4471,7 @@
       <c r="AM41" s="6"/>
       <c r="AO41" s="7"/>
     </row>
-    <row r="42" spans="1:41" ht="20" customHeight="1">
+    <row r="42" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A42" s="22"/>
       <c r="B42" s="1"/>
       <c r="C42" s="22"/>
@@ -4472,7 +4513,7 @@
       <c r="AM42" s="6"/>
       <c r="AO42" s="7"/>
     </row>
-    <row r="43" spans="1:41" ht="20" customHeight="1">
+    <row r="43" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A43" s="22"/>
       <c r="B43" s="1"/>
       <c r="C43" s="22"/>
@@ -4514,7 +4555,7 @@
       <c r="AM43" s="6"/>
       <c r="AO43" s="7"/>
     </row>
-    <row r="44" spans="1:41" ht="20" customHeight="1">
+    <row r="44" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A44" s="22"/>
       <c r="B44" s="1"/>
       <c r="C44" s="22"/>
@@ -4556,7 +4597,7 @@
       <c r="AM44" s="6"/>
       <c r="AO44" s="7"/>
     </row>
-    <row r="45" spans="1:41" ht="20" customHeight="1">
+    <row r="45" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A45" s="22"/>
       <c r="B45" s="1"/>
       <c r="C45" s="22"/>
@@ -4598,7 +4639,7 @@
       <c r="AM45" s="6"/>
       <c r="AO45" s="7"/>
     </row>
-    <row r="46" spans="1:41" ht="20" customHeight="1">
+    <row r="46" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A46" s="22"/>
       <c r="B46" s="1"/>
       <c r="C46" s="22"/>
@@ -4640,7 +4681,7 @@
       <c r="AM46" s="6"/>
       <c r="AO46" s="7"/>
     </row>
-    <row r="47" spans="1:41" ht="20" customHeight="1">
+    <row r="47" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A47" s="22"/>
       <c r="B47" s="1"/>
       <c r="C47" s="22"/>
@@ -4682,7 +4723,7 @@
       <c r="AM47" s="6"/>
       <c r="AO47" s="7"/>
     </row>
-    <row r="48" spans="1:41" ht="20" customHeight="1">
+    <row r="48" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A48" s="22"/>
       <c r="B48" s="1"/>
       <c r="C48" s="22"/>
@@ -4724,7 +4765,7 @@
       <c r="AM48" s="6"/>
       <c r="AO48" s="7"/>
     </row>
-    <row r="49" spans="1:41" ht="20" customHeight="1">
+    <row r="49" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A49" s="22"/>
       <c r="B49" s="1"/>
       <c r="C49" s="22"/>
@@ -4766,7 +4807,7 @@
       <c r="AM49" s="6"/>
       <c r="AO49" s="7"/>
     </row>
-    <row r="50" spans="1:41" ht="20" customHeight="1">
+    <row r="50" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A50" s="22"/>
       <c r="B50" s="1"/>
       <c r="C50" s="22"/>
@@ -4808,7 +4849,7 @@
       <c r="AM50" s="6"/>
       <c r="AO50" s="7"/>
     </row>
-    <row r="51" spans="1:41" ht="20" customHeight="1">
+    <row r="51" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A51" s="22"/>
       <c r="B51" s="1"/>
       <c r="C51" s="22"/>
@@ -4850,7 +4891,7 @@
       <c r="AM51" s="6"/>
       <c r="AO51" s="7"/>
     </row>
-    <row r="52" spans="1:41" ht="20" customHeight="1">
+    <row r="52" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A52" s="22"/>
       <c r="B52" s="1"/>
       <c r="C52" s="22"/>
@@ -4892,7 +4933,7 @@
       <c r="AM52" s="6"/>
       <c r="AO52" s="7"/>
     </row>
-    <row r="53" spans="1:41" ht="20" customHeight="1">
+    <row r="53" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A53" s="22"/>
       <c r="B53" s="1"/>
       <c r="C53" s="22"/>
@@ -4934,7 +4975,7 @@
       <c r="AM53" s="6"/>
       <c r="AO53" s="7"/>
     </row>
-    <row r="54" spans="1:41" ht="20" customHeight="1">
+    <row r="54" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A54" s="22"/>
       <c r="B54" s="26"/>
       <c r="C54" s="33"/>
@@ -4976,7 +5017,7 @@
       <c r="AM54" s="6"/>
       <c r="AO54" s="7"/>
     </row>
-    <row r="55" spans="1:41" ht="20" customHeight="1">
+    <row r="55" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A55" s="22"/>
       <c r="B55" s="26"/>
       <c r="C55" s="26"/>
@@ -5018,7 +5059,7 @@
       <c r="AM55" s="6"/>
       <c r="AO55" s="7"/>
     </row>
-    <row r="56" spans="1:41" ht="20" customHeight="1">
+    <row r="56" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A56" s="22"/>
       <c r="B56" s="1"/>
       <c r="C56" s="1"/>
@@ -5060,7 +5101,7 @@
       <c r="AM56" s="6"/>
       <c r="AO56" s="7"/>
     </row>
-    <row r="57" spans="1:41" ht="20" customHeight="1">
+    <row r="57" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A57" s="23"/>
       <c r="B57" s="15"/>
       <c r="C57" s="15"/>
@@ -5105,12 +5146,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="C33:F34"/>
+    <mergeCell ref="C9:F10"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="A6:AL6"/>
     <mergeCell ref="AM6:AO6"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
@@ -5123,17 +5165,16 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="C33:F34"/>
-    <mergeCell ref="C9:F10"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="A6:AL6"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -5141,237 +5182,241 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79602B71-5AF5-BA46-8214-F3D0B7A00FB3}">
   <dimension ref="A1:AO35"/>
   <sheetViews>
-    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection sqref="A1:N4"/>
+    <sheetView showGridLines="0" tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6:AE6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="3.7109375" defaultRowHeight="20" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="3.7265625" defaultRowHeight="19.95" customHeight="1" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="9" width="3.7109375" style="2"/>
+    <col min="1" max="9" width="3.7265625" style="2"/>
     <col min="10" max="14" width="4" style="2" customWidth="1"/>
-    <col min="15" max="16384" width="3.7109375" style="2"/>
+    <col min="15" max="16384" width="3.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:41" ht="20" customHeight="1">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A1" s="46" t="s">
+        <v>25</v>
+      </c>
+      <c r="B1" s="47"/>
+      <c r="C1" s="47"/>
+      <c r="D1" s="47"/>
+      <c r="E1" s="47"/>
+      <c r="F1" s="47"/>
+      <c r="G1" s="47"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="70" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="71"/>
+      <c r="Q1" s="71"/>
+      <c r="R1" s="71"/>
+      <c r="S1" s="72"/>
+      <c r="T1" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="49"/>
-      <c r="C1" s="49"/>
-      <c r="D1" s="49"/>
-      <c r="E1" s="49"/>
-      <c r="F1" s="49"/>
-      <c r="G1" s="49"/>
-      <c r="H1" s="49"/>
-      <c r="I1" s="49"/>
-      <c r="J1" s="49"/>
-      <c r="K1" s="49"/>
-      <c r="L1" s="49"/>
-      <c r="M1" s="49"/>
-      <c r="N1" s="50"/>
-      <c r="O1" s="86" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="87"/>
-      <c r="Q1" s="87"/>
-      <c r="R1" s="87"/>
-      <c r="S1" s="88"/>
-      <c r="T1" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="45"/>
-      <c r="AB1" s="80" t="s">
+      <c r="U1" s="41"/>
+      <c r="V1" s="41"/>
+      <c r="W1" s="41"/>
+      <c r="X1" s="41"/>
+      <c r="Y1" s="41"/>
+      <c r="Z1" s="41"/>
+      <c r="AA1" s="42"/>
+      <c r="AB1" s="73" t="s">
         <v>4</v>
       </c>
-      <c r="AC1" s="81"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="95" t="s">
-        <v>33</v>
-      </c>
-      <c r="AF1" s="37"/>
-      <c r="AG1" s="37"/>
-      <c r="AH1" s="79"/>
-      <c r="AI1" s="80" t="s">
+      <c r="AC1" s="74"/>
+      <c r="AD1" s="75"/>
+      <c r="AE1" s="79" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF1" s="57"/>
+      <c r="AG1" s="57"/>
+      <c r="AH1" s="80"/>
+      <c r="AI1" s="73" t="s">
         <v>6</v>
       </c>
-      <c r="AJ1" s="81"/>
-      <c r="AK1" s="82"/>
-      <c r="AL1" s="98">
+      <c r="AJ1" s="74"/>
+      <c r="AK1" s="75"/>
+      <c r="AL1" s="86">
         <v>45566</v>
       </c>
-      <c r="AM1" s="99"/>
-      <c r="AN1" s="99"/>
-      <c r="AO1" s="100"/>
-    </row>
-    <row r="2" spans="1:41" ht="20" customHeight="1">
-      <c r="A2" s="51"/>
-      <c r="B2" s="104"/>
-      <c r="C2" s="104"/>
-      <c r="D2" s="104"/>
-      <c r="E2" s="104"/>
-      <c r="F2" s="104"/>
-      <c r="G2" s="104"/>
-      <c r="H2" s="104"/>
-      <c r="I2" s="104"/>
-      <c r="J2" s="104"/>
-      <c r="K2" s="104"/>
-      <c r="L2" s="104"/>
-      <c r="M2" s="104"/>
-      <c r="N2" s="53"/>
-      <c r="O2" s="86" t="s">
+      <c r="AM1" s="87"/>
+      <c r="AN1" s="87"/>
+      <c r="AO1" s="88"/>
+    </row>
+    <row r="2" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A2" s="49"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="70" t="s">
         <v>1</v>
       </c>
-      <c r="P2" s="87"/>
-      <c r="Q2" s="87"/>
-      <c r="R2" s="87"/>
-      <c r="S2" s="88"/>
-      <c r="T2" s="43" t="s">
-        <v>32</v>
-      </c>
-      <c r="U2" s="44"/>
-      <c r="V2" s="44"/>
-      <c r="W2" s="44"/>
-      <c r="X2" s="44"/>
-      <c r="Y2" s="44"/>
-      <c r="Z2" s="44"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="83"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="85"/>
-      <c r="AE2" s="72"/>
-      <c r="AF2" s="73"/>
-      <c r="AG2" s="73"/>
-      <c r="AH2" s="74"/>
-      <c r="AI2" s="83"/>
-      <c r="AJ2" s="84"/>
-      <c r="AK2" s="85"/>
-      <c r="AL2" s="101"/>
-      <c r="AM2" s="102"/>
-      <c r="AN2" s="102"/>
-      <c r="AO2" s="103"/>
-    </row>
-    <row r="3" spans="1:41" ht="20" customHeight="1">
-      <c r="A3" s="51"/>
-      <c r="B3" s="104"/>
-      <c r="C3" s="104"/>
-      <c r="D3" s="104"/>
-      <c r="E3" s="104"/>
-      <c r="F3" s="104"/>
-      <c r="G3" s="104"/>
-      <c r="H3" s="104"/>
-      <c r="I3" s="104"/>
-      <c r="J3" s="104"/>
-      <c r="K3" s="104"/>
-      <c r="L3" s="104"/>
-      <c r="M3" s="104"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="86" t="s">
+      <c r="P2" s="71"/>
+      <c r="Q2" s="71"/>
+      <c r="R2" s="71"/>
+      <c r="S2" s="72"/>
+      <c r="T2" s="40" t="s">
+        <v>31</v>
+      </c>
+      <c r="U2" s="41"/>
+      <c r="V2" s="41"/>
+      <c r="W2" s="41"/>
+      <c r="X2" s="41"/>
+      <c r="Y2" s="41"/>
+      <c r="Z2" s="41"/>
+      <c r="AA2" s="42"/>
+      <c r="AB2" s="76"/>
+      <c r="AC2" s="77"/>
+      <c r="AD2" s="78"/>
+      <c r="AE2" s="81"/>
+      <c r="AF2" s="82"/>
+      <c r="AG2" s="82"/>
+      <c r="AH2" s="83"/>
+      <c r="AI2" s="76"/>
+      <c r="AJ2" s="77"/>
+      <c r="AK2" s="78"/>
+      <c r="AL2" s="89"/>
+      <c r="AM2" s="90"/>
+      <c r="AN2" s="90"/>
+      <c r="AO2" s="91"/>
+    </row>
+    <row r="3" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A3" s="49"/>
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="69"/>
+      <c r="H3" s="69"/>
+      <c r="I3" s="69"/>
+      <c r="J3" s="69"/>
+      <c r="K3" s="69"/>
+      <c r="L3" s="69"/>
+      <c r="M3" s="69"/>
+      <c r="N3" s="51"/>
+      <c r="O3" s="70" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="87"/>
-      <c r="Q3" s="87"/>
-      <c r="R3" s="87"/>
-      <c r="S3" s="88"/>
-      <c r="T3" s="40" t="s">
+      <c r="P3" s="71"/>
+      <c r="Q3" s="71"/>
+      <c r="R3" s="71"/>
+      <c r="S3" s="72"/>
+      <c r="T3" s="56" t="s">
+        <v>39</v>
+      </c>
+      <c r="U3" s="84"/>
+      <c r="V3" s="84"/>
+      <c r="W3" s="84"/>
+      <c r="X3" s="84"/>
+      <c r="Y3" s="84"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="85"/>
+      <c r="AB3" s="73" t="s">
+        <v>5</v>
+      </c>
+      <c r="AC3" s="74"/>
+      <c r="AD3" s="75"/>
+      <c r="AE3" s="79" t="s">
+        <v>43</v>
+      </c>
+      <c r="AF3" s="57"/>
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="80"/>
+      <c r="AI3" s="73" t="s">
+        <v>7</v>
+      </c>
+      <c r="AJ3" s="74"/>
+      <c r="AK3" s="75"/>
+      <c r="AL3" s="86">
+        <v>45607</v>
+      </c>
+      <c r="AM3" s="92"/>
+      <c r="AN3" s="92"/>
+      <c r="AO3" s="93"/>
+    </row>
+    <row r="4" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="53"/>
+      <c r="D4" s="53"/>
+      <c r="E4" s="53"/>
+      <c r="F4" s="53"/>
+      <c r="G4" s="53"/>
+      <c r="H4" s="53"/>
+      <c r="I4" s="53"/>
+      <c r="J4" s="53"/>
+      <c r="K4" s="53"/>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="54"/>
+      <c r="O4" s="70" t="s">
+        <v>2</v>
+      </c>
+      <c r="P4" s="71"/>
+      <c r="Q4" s="71"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="U3" s="96"/>
-      <c r="V3" s="96"/>
-      <c r="W3" s="96"/>
-      <c r="X3" s="96"/>
-      <c r="Y3" s="96"/>
-      <c r="Z3" s="96"/>
-      <c r="AA3" s="97"/>
-      <c r="AB3" s="80" t="s">
-        <v>5</v>
-      </c>
-      <c r="AC3" s="81"/>
-      <c r="AD3" s="82"/>
-      <c r="AE3" s="95"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="79"/>
-      <c r="AI3" s="80" t="s">
-        <v>7</v>
-      </c>
-      <c r="AJ3" s="81"/>
-      <c r="AK3" s="82"/>
-      <c r="AL3" s="89"/>
-      <c r="AM3" s="90"/>
-      <c r="AN3" s="90"/>
-      <c r="AO3" s="91"/>
-    </row>
-    <row r="4" spans="1:41" ht="20" customHeight="1">
-      <c r="A4" s="54"/>
-      <c r="B4" s="55"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
-      <c r="E4" s="55"/>
-      <c r="F4" s="55"/>
-      <c r="G4" s="55"/>
-      <c r="H4" s="55"/>
-      <c r="I4" s="55"/>
-      <c r="J4" s="55"/>
-      <c r="K4" s="55"/>
-      <c r="L4" s="55"/>
-      <c r="M4" s="55"/>
-      <c r="N4" s="56"/>
-      <c r="O4" s="86" t="s">
-        <v>2</v>
-      </c>
-      <c r="P4" s="87"/>
-      <c r="Q4" s="87"/>
-      <c r="R4" s="87"/>
-      <c r="S4" s="88"/>
-      <c r="T4" s="40" t="s">
-        <v>43</v>
-      </c>
-      <c r="U4" s="96"/>
-      <c r="V4" s="96"/>
-      <c r="W4" s="96"/>
-      <c r="X4" s="96"/>
-      <c r="Y4" s="96"/>
-      <c r="Z4" s="96"/>
-      <c r="AA4" s="97"/>
-      <c r="AB4" s="83"/>
-      <c r="AC4" s="84"/>
-      <c r="AD4" s="85"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="73"/>
-      <c r="AG4" s="73"/>
-      <c r="AH4" s="74"/>
-      <c r="AI4" s="83"/>
-      <c r="AJ4" s="84"/>
-      <c r="AK4" s="85"/>
-      <c r="AL4" s="92"/>
-      <c r="AM4" s="93"/>
-      <c r="AN4" s="93"/>
-      <c r="AO4" s="94"/>
-    </row>
-    <row r="5" spans="1:41" ht="20" customHeight="1">
-      <c r="A5" s="46" t="s">
+      <c r="U4" s="84"/>
+      <c r="V4" s="84"/>
+      <c r="W4" s="84"/>
+      <c r="X4" s="84"/>
+      <c r="Y4" s="84"/>
+      <c r="Z4" s="84"/>
+      <c r="AA4" s="85"/>
+      <c r="AB4" s="76"/>
+      <c r="AC4" s="77"/>
+      <c r="AD4" s="78"/>
+      <c r="AE4" s="81"/>
+      <c r="AF4" s="82"/>
+      <c r="AG4" s="82"/>
+      <c r="AH4" s="83"/>
+      <c r="AI4" s="76"/>
+      <c r="AJ4" s="77"/>
+      <c r="AK4" s="78"/>
+      <c r="AL4" s="94"/>
+      <c r="AM4" s="95"/>
+      <c r="AN4" s="95"/>
+      <c r="AO4" s="96"/>
+    </row>
+    <row r="5" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B5" s="47"/>
+      <c r="B5" s="45"/>
       <c r="C5" s="68"/>
       <c r="D5" s="65" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E5" s="66"/>
       <c r="F5" s="67"/>
-      <c r="G5" s="46" t="s">
+      <c r="G5" s="44" t="s">
         <v>21</v>
       </c>
-      <c r="H5" s="47"/>
+      <c r="H5" s="45"/>
       <c r="I5" s="68"/>
       <c r="J5" s="65" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="K5" s="66"/>
       <c r="L5" s="66"/>
@@ -5405,75 +5450,75 @@
       <c r="AN5" s="11"/>
       <c r="AO5" s="11"/>
     </row>
-    <row r="6" spans="1:41" ht="20" customHeight="1">
-      <c r="A6" s="46" t="s">
+    <row r="6" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="44" t="s">
         <v>23</v>
       </c>
-      <c r="B6" s="47"/>
-      <c r="C6" s="47"/>
-      <c r="D6" s="47"/>
-      <c r="E6" s="47"/>
-      <c r="F6" s="47"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="68"/>
-      <c r="H6" s="46" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="47"/>
-      <c r="J6" s="47"/>
-      <c r="K6" s="47"/>
-      <c r="L6" s="47"/>
-      <c r="M6" s="47"/>
-      <c r="N6" s="47"/>
-      <c r="O6" s="47"/>
-      <c r="P6" s="47"/>
-      <c r="Q6" s="47"/>
-      <c r="R6" s="47"/>
-      <c r="S6" s="47"/>
-      <c r="T6" s="47"/>
-      <c r="U6" s="47"/>
-      <c r="V6" s="47"/>
-      <c r="W6" s="47"/>
-      <c r="X6" s="47"/>
-      <c r="Y6" s="47"/>
-      <c r="Z6" s="47"/>
-      <c r="AA6" s="47"/>
-      <c r="AB6" s="47"/>
-      <c r="AC6" s="47"/>
-      <c r="AD6" s="47"/>
+      <c r="H6" s="44" t="s">
+        <v>48</v>
+      </c>
+      <c r="I6" s="45"/>
+      <c r="J6" s="45"/>
+      <c r="K6" s="45"/>
+      <c r="L6" s="45"/>
+      <c r="M6" s="45"/>
+      <c r="N6" s="45"/>
+      <c r="O6" s="45"/>
+      <c r="P6" s="45"/>
+      <c r="Q6" s="45"/>
+      <c r="R6" s="45"/>
+      <c r="S6" s="45"/>
+      <c r="T6" s="45"/>
+      <c r="U6" s="45"/>
+      <c r="V6" s="45"/>
+      <c r="W6" s="45"/>
+      <c r="X6" s="45"/>
+      <c r="Y6" s="45"/>
+      <c r="Z6" s="45"/>
+      <c r="AA6" s="45"/>
+      <c r="AB6" s="45"/>
+      <c r="AC6" s="45"/>
+      <c r="AD6" s="45"/>
       <c r="AE6" s="68"/>
-      <c r="AF6" s="46" t="s">
+      <c r="AF6" s="44" t="s">
         <v>24</v>
       </c>
-      <c r="AG6" s="47"/>
-      <c r="AH6" s="47"/>
-      <c r="AI6" s="47"/>
-      <c r="AJ6" s="47"/>
-      <c r="AK6" s="47"/>
+      <c r="AG6" s="45"/>
+      <c r="AH6" s="45"/>
+      <c r="AI6" s="45"/>
+      <c r="AJ6" s="45"/>
+      <c r="AK6" s="45"/>
       <c r="AL6" s="68"/>
-      <c r="AM6" s="46" t="s">
+      <c r="AM6" s="44" t="s">
         <v>9</v>
       </c>
-      <c r="AN6" s="47"/>
+      <c r="AN6" s="45"/>
       <c r="AO6" s="68"/>
     </row>
-    <row r="7" spans="1:41" ht="20" customHeight="1">
-      <c r="A7" s="77"/>
-      <c r="B7" s="78"/>
-      <c r="C7" s="78"/>
-      <c r="D7" s="78"/>
-      <c r="E7" s="78"/>
-      <c r="F7" s="78"/>
-      <c r="G7" s="78"/>
+    <row r="7" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="97"/>
+      <c r="B7" s="98"/>
+      <c r="C7" s="98"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="98"/>
+      <c r="F7" s="98"/>
+      <c r="G7" s="98"/>
       <c r="H7" s="21"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12"/>
-      <c r="M7" s="12"/>
-      <c r="N7" s="12"/>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
-      <c r="Q7" s="12"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
+      <c r="K7" s="25"/>
+      <c r="L7" s="25"/>
+      <c r="M7" s="25"/>
+      <c r="N7" s="25"/>
+      <c r="O7" s="25"/>
+      <c r="P7" s="25"/>
+      <c r="Q7" s="25"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
       <c r="T7" s="12"/>
@@ -5488,27 +5533,27 @@
       <c r="AC7" s="12"/>
       <c r="AD7" s="12"/>
       <c r="AE7" s="13"/>
-      <c r="AF7" s="37"/>
-      <c r="AG7" s="37"/>
-      <c r="AH7" s="37"/>
-      <c r="AI7" s="37"/>
-      <c r="AJ7" s="37"/>
-      <c r="AK7" s="37"/>
-      <c r="AL7" s="79"/>
+      <c r="AF7" s="57"/>
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="57"/>
+      <c r="AI7" s="57"/>
+      <c r="AJ7" s="57"/>
+      <c r="AK7" s="57"/>
+      <c r="AL7" s="80"/>
       <c r="AM7" s="12"/>
       <c r="AN7" s="12"/>
       <c r="AO7" s="13"/>
     </row>
-    <row r="8" spans="1:41" ht="20" customHeight="1">
-      <c r="A8" s="75"/>
-      <c r="B8" s="76"/>
-      <c r="C8" s="76"/>
-      <c r="D8" s="76"/>
-      <c r="E8" s="76"/>
-      <c r="F8" s="76"/>
-      <c r="G8" s="76"/>
+    <row r="8" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="99"/>
+      <c r="B8" s="100"/>
+      <c r="C8" s="100"/>
+      <c r="D8" s="100"/>
+      <c r="E8" s="100"/>
+      <c r="F8" s="100"/>
+      <c r="G8" s="100"/>
       <c r="H8" s="22"/>
-      <c r="I8" s="1"/>
+      <c r="I8" s="25"/>
       <c r="J8" s="25"/>
       <c r="K8" s="25"/>
       <c r="L8" s="25"/>
@@ -5531,29 +5576,33 @@
       <c r="AC8" s="1"/>
       <c r="AD8" s="1"/>
       <c r="AE8" s="14"/>
-      <c r="AF8" s="70"/>
-      <c r="AG8" s="70"/>
-      <c r="AH8" s="70"/>
-      <c r="AI8" s="70"/>
-      <c r="AJ8" s="70"/>
-      <c r="AK8" s="70"/>
-      <c r="AL8" s="71"/>
-      <c r="AM8" s="1"/>
+      <c r="AF8" s="101"/>
+      <c r="AG8" s="101"/>
+      <c r="AH8" s="101"/>
+      <c r="AI8" s="101"/>
+      <c r="AJ8" s="101"/>
+      <c r="AK8" s="101"/>
+      <c r="AL8" s="102"/>
+      <c r="AM8" s="1" t="s">
+        <v>46</v>
+      </c>
       <c r="AN8" s="1"/>
       <c r="AO8" s="14"/>
     </row>
-    <row r="9" spans="1:41" ht="20" customHeight="1">
-      <c r="A9" s="75"/>
-      <c r="B9" s="76"/>
-      <c r="C9" s="76"/>
-      <c r="D9" s="76"/>
-      <c r="E9" s="76"/>
-      <c r="F9" s="76"/>
-      <c r="G9" s="76"/>
+    <row r="9" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="99"/>
+      <c r="B9" s="100"/>
+      <c r="C9" s="100"/>
+      <c r="D9" s="100"/>
+      <c r="E9" s="100"/>
+      <c r="F9" s="100"/>
+      <c r="G9" s="100"/>
       <c r="H9" s="22"/>
       <c r="I9" s="25"/>
       <c r="J9" s="25"/>
-      <c r="K9" s="25"/>
+      <c r="K9" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="L9" s="25"/>
       <c r="M9" s="25"/>
       <c r="N9" s="25"/>
@@ -5574,30 +5623,32 @@
       <c r="AC9" s="1"/>
       <c r="AD9" s="1"/>
       <c r="AE9" s="14"/>
-      <c r="AF9" s="70"/>
-      <c r="AG9" s="70"/>
-      <c r="AH9" s="70"/>
-      <c r="AI9" s="70"/>
-      <c r="AJ9" s="70"/>
-      <c r="AK9" s="70"/>
-      <c r="AL9" s="71"/>
+      <c r="AF9" s="101"/>
+      <c r="AG9" s="101"/>
+      <c r="AH9" s="101"/>
+      <c r="AI9" s="101"/>
+      <c r="AJ9" s="101"/>
+      <c r="AK9" s="101"/>
+      <c r="AL9" s="102"/>
       <c r="AM9" s="1"/>
       <c r="AN9" s="1"/>
       <c r="AO9" s="14"/>
     </row>
-    <row r="10" spans="1:41" ht="20" customHeight="1">
-      <c r="A10" s="75"/>
-      <c r="B10" s="76"/>
-      <c r="C10" s="76"/>
-      <c r="D10" s="76"/>
-      <c r="E10" s="76"/>
-      <c r="F10" s="76"/>
-      <c r="G10" s="76"/>
+    <row r="10" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="99"/>
+      <c r="B10" s="100"/>
+      <c r="C10" s="100"/>
+      <c r="D10" s="100"/>
+      <c r="E10" s="100"/>
+      <c r="F10" s="100"/>
+      <c r="G10" s="100"/>
       <c r="H10" s="22"/>
       <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
+      <c r="J10" s="25"/>
       <c r="K10" s="25"/>
-      <c r="L10" s="25"/>
+      <c r="L10" s="25" t="s">
+        <v>45</v>
+      </c>
       <c r="M10" s="25"/>
       <c r="N10" s="25"/>
       <c r="O10" s="25"/>
@@ -5617,30 +5668,30 @@
       <c r="AC10" s="1"/>
       <c r="AD10" s="1"/>
       <c r="AE10" s="14"/>
-      <c r="AF10" s="70"/>
-      <c r="AG10" s="70"/>
-      <c r="AH10" s="70"/>
-      <c r="AI10" s="70"/>
-      <c r="AJ10" s="70"/>
-      <c r="AK10" s="70"/>
-      <c r="AL10" s="71"/>
+      <c r="AF10" s="101"/>
+      <c r="AG10" s="101"/>
+      <c r="AH10" s="101"/>
+      <c r="AI10" s="101"/>
+      <c r="AJ10" s="101"/>
+      <c r="AK10" s="101"/>
+      <c r="AL10" s="102"/>
       <c r="AM10" s="1"/>
       <c r="AN10" s="1"/>
       <c r="AO10" s="14"/>
     </row>
-    <row r="11" spans="1:41" ht="20" customHeight="1">
-      <c r="A11" s="75"/>
-      <c r="B11" s="76"/>
-      <c r="C11" s="76"/>
-      <c r="D11" s="76"/>
-      <c r="E11" s="76"/>
-      <c r="F11" s="76"/>
-      <c r="G11" s="76"/>
+    <row r="11" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="99"/>
+      <c r="B11" s="100"/>
+      <c r="C11" s="100"/>
+      <c r="D11" s="100"/>
+      <c r="E11" s="100"/>
+      <c r="F11" s="100"/>
+      <c r="G11" s="100"/>
       <c r="H11" s="22"/>
       <c r="I11" s="25"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
-      <c r="L11" s="25"/>
+      <c r="L11" s="1"/>
       <c r="M11" s="25"/>
       <c r="N11" s="25"/>
       <c r="O11" s="25"/>
@@ -5660,29 +5711,29 @@
       <c r="AC11" s="1"/>
       <c r="AD11" s="1"/>
       <c r="AE11" s="14"/>
-      <c r="AF11" s="70"/>
-      <c r="AG11" s="70"/>
-      <c r="AH11" s="70"/>
-      <c r="AI11" s="70"/>
-      <c r="AJ11" s="70"/>
-      <c r="AK11" s="70"/>
-      <c r="AL11" s="71"/>
+      <c r="AF11" s="101"/>
+      <c r="AG11" s="101"/>
+      <c r="AH11" s="101"/>
+      <c r="AI11" s="101"/>
+      <c r="AJ11" s="101"/>
+      <c r="AK11" s="101"/>
+      <c r="AL11" s="102"/>
       <c r="AM11" s="1"/>
       <c r="AN11" s="1"/>
       <c r="AO11" s="14"/>
     </row>
-    <row r="12" spans="1:41" ht="20" customHeight="1">
-      <c r="A12" s="75"/>
-      <c r="B12" s="76"/>
-      <c r="C12" s="76"/>
-      <c r="D12" s="76"/>
-      <c r="E12" s="76"/>
-      <c r="F12" s="76"/>
-      <c r="G12" s="76"/>
+    <row r="12" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="99"/>
+      <c r="B12" s="100"/>
+      <c r="C12" s="100"/>
+      <c r="D12" s="100"/>
+      <c r="E12" s="100"/>
+      <c r="F12" s="100"/>
+      <c r="G12" s="100"/>
       <c r="H12" s="22"/>
       <c r="I12" s="25"/>
       <c r="J12" s="25"/>
-      <c r="K12" s="1"/>
+      <c r="K12" s="25"/>
       <c r="L12" s="25"/>
       <c r="M12" s="25"/>
       <c r="N12" s="25"/>
@@ -5703,25 +5754,25 @@
       <c r="AC12" s="1"/>
       <c r="AD12" s="1"/>
       <c r="AE12" s="14"/>
-      <c r="AF12" s="70"/>
-      <c r="AG12" s="70"/>
-      <c r="AH12" s="70"/>
-      <c r="AI12" s="70"/>
-      <c r="AJ12" s="70"/>
-      <c r="AK12" s="70"/>
-      <c r="AL12" s="71"/>
+      <c r="AF12" s="101"/>
+      <c r="AG12" s="101"/>
+      <c r="AH12" s="101"/>
+      <c r="AI12" s="101"/>
+      <c r="AJ12" s="101"/>
+      <c r="AK12" s="101"/>
+      <c r="AL12" s="102"/>
       <c r="AM12" s="1"/>
       <c r="AN12" s="1"/>
       <c r="AO12" s="14"/>
     </row>
-    <row r="13" spans="1:41" ht="20" customHeight="1">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="76"/>
+    <row r="13" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="99"/>
+      <c r="B13" s="100"/>
+      <c r="C13" s="100"/>
+      <c r="D13" s="100"/>
+      <c r="E13" s="100"/>
+      <c r="F13" s="100"/>
+      <c r="G13" s="100"/>
       <c r="H13" s="22"/>
       <c r="I13" s="25"/>
       <c r="J13" s="25"/>
@@ -5746,25 +5797,25 @@
       <c r="AC13" s="1"/>
       <c r="AD13" s="1"/>
       <c r="AE13" s="14"/>
-      <c r="AF13" s="70"/>
-      <c r="AG13" s="70"/>
-      <c r="AH13" s="70"/>
-      <c r="AI13" s="70"/>
-      <c r="AJ13" s="70"/>
-      <c r="AK13" s="70"/>
-      <c r="AL13" s="71"/>
+      <c r="AF13" s="101"/>
+      <c r="AG13" s="101"/>
+      <c r="AH13" s="101"/>
+      <c r="AI13" s="101"/>
+      <c r="AJ13" s="101"/>
+      <c r="AK13" s="101"/>
+      <c r="AL13" s="102"/>
       <c r="AM13" s="1"/>
       <c r="AN13" s="1"/>
       <c r="AO13" s="14"/>
     </row>
-    <row r="14" spans="1:41" ht="20" customHeight="1">
-      <c r="A14" s="75"/>
-      <c r="B14" s="76"/>
-      <c r="C14" s="76"/>
-      <c r="D14" s="76"/>
-      <c r="E14" s="76"/>
-      <c r="F14" s="76"/>
-      <c r="G14" s="76"/>
+    <row r="14" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="99"/>
+      <c r="B14" s="100"/>
+      <c r="C14" s="100"/>
+      <c r="D14" s="100"/>
+      <c r="E14" s="100"/>
+      <c r="F14" s="100"/>
+      <c r="G14" s="100"/>
       <c r="H14" s="22"/>
       <c r="I14" s="25"/>
       <c r="J14" s="25"/>
@@ -5789,25 +5840,25 @@
       <c r="AC14" s="1"/>
       <c r="AD14" s="1"/>
       <c r="AE14" s="14"/>
-      <c r="AF14" s="70"/>
-      <c r="AG14" s="70"/>
-      <c r="AH14" s="70"/>
-      <c r="AI14" s="70"/>
-      <c r="AJ14" s="70"/>
-      <c r="AK14" s="70"/>
-      <c r="AL14" s="71"/>
+      <c r="AF14" s="101"/>
+      <c r="AG14" s="101"/>
+      <c r="AH14" s="101"/>
+      <c r="AI14" s="101"/>
+      <c r="AJ14" s="101"/>
+      <c r="AK14" s="101"/>
+      <c r="AL14" s="102"/>
       <c r="AM14" s="1"/>
       <c r="AN14" s="1"/>
       <c r="AO14" s="14"/>
     </row>
-    <row r="15" spans="1:41" ht="20" customHeight="1">
-      <c r="A15" s="75"/>
-      <c r="B15" s="76"/>
-      <c r="C15" s="76"/>
-      <c r="D15" s="76"/>
-      <c r="E15" s="76"/>
-      <c r="F15" s="76"/>
-      <c r="G15" s="76"/>
+    <row r="15" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="99"/>
+      <c r="B15" s="100"/>
+      <c r="C15" s="100"/>
+      <c r="D15" s="100"/>
+      <c r="E15" s="100"/>
+      <c r="F15" s="100"/>
+      <c r="G15" s="100"/>
       <c r="H15" s="22"/>
       <c r="I15" s="25"/>
       <c r="J15" s="25"/>
@@ -5832,25 +5883,25 @@
       <c r="AC15" s="1"/>
       <c r="AD15" s="1"/>
       <c r="AE15" s="14"/>
-      <c r="AF15" s="70"/>
-      <c r="AG15" s="70"/>
-      <c r="AH15" s="70"/>
-      <c r="AI15" s="70"/>
-      <c r="AJ15" s="70"/>
-      <c r="AK15" s="70"/>
-      <c r="AL15" s="71"/>
+      <c r="AF15" s="101"/>
+      <c r="AG15" s="101"/>
+      <c r="AH15" s="101"/>
+      <c r="AI15" s="101"/>
+      <c r="AJ15" s="101"/>
+      <c r="AK15" s="101"/>
+      <c r="AL15" s="102"/>
       <c r="AM15" s="1"/>
       <c r="AN15" s="1"/>
       <c r="AO15" s="14"/>
     </row>
-    <row r="16" spans="1:41" ht="20" customHeight="1">
-      <c r="A16" s="75"/>
-      <c r="B16" s="76"/>
-      <c r="C16" s="76"/>
-      <c r="D16" s="76"/>
-      <c r="E16" s="76"/>
-      <c r="F16" s="76"/>
-      <c r="G16" s="76"/>
+    <row r="16" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A16" s="99"/>
+      <c r="B16" s="100"/>
+      <c r="C16" s="100"/>
+      <c r="D16" s="100"/>
+      <c r="E16" s="100"/>
+      <c r="F16" s="100"/>
+      <c r="G16" s="100"/>
       <c r="H16" s="22"/>
       <c r="I16" s="25"/>
       <c r="J16" s="25"/>
@@ -5875,25 +5926,25 @@
       <c r="AC16" s="1"/>
       <c r="AD16" s="1"/>
       <c r="AE16" s="14"/>
-      <c r="AF16" s="70"/>
-      <c r="AG16" s="70"/>
-      <c r="AH16" s="70"/>
-      <c r="AI16" s="70"/>
-      <c r="AJ16" s="70"/>
-      <c r="AK16" s="70"/>
-      <c r="AL16" s="71"/>
+      <c r="AF16" s="101"/>
+      <c r="AG16" s="101"/>
+      <c r="AH16" s="101"/>
+      <c r="AI16" s="101"/>
+      <c r="AJ16" s="101"/>
+      <c r="AK16" s="101"/>
+      <c r="AL16" s="102"/>
       <c r="AM16" s="1"/>
       <c r="AN16" s="1"/>
       <c r="AO16" s="14"/>
     </row>
-    <row r="17" spans="1:41" ht="20" customHeight="1">
-      <c r="A17" s="75"/>
-      <c r="B17" s="76"/>
-      <c r="C17" s="76"/>
-      <c r="D17" s="76"/>
-      <c r="E17" s="76"/>
-      <c r="F17" s="76"/>
-      <c r="G17" s="76"/>
+    <row r="17" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A17" s="99"/>
+      <c r="B17" s="100"/>
+      <c r="C17" s="100"/>
+      <c r="D17" s="100"/>
+      <c r="E17" s="100"/>
+      <c r="F17" s="100"/>
+      <c r="G17" s="100"/>
       <c r="H17" s="22"/>
       <c r="I17" s="25"/>
       <c r="J17" s="25"/>
@@ -5918,25 +5969,25 @@
       <c r="AC17" s="1"/>
       <c r="AD17" s="1"/>
       <c r="AE17" s="14"/>
-      <c r="AF17" s="70"/>
-      <c r="AG17" s="70"/>
-      <c r="AH17" s="70"/>
-      <c r="AI17" s="70"/>
-      <c r="AJ17" s="70"/>
-      <c r="AK17" s="70"/>
-      <c r="AL17" s="71"/>
+      <c r="AF17" s="101"/>
+      <c r="AG17" s="101"/>
+      <c r="AH17" s="101"/>
+      <c r="AI17" s="101"/>
+      <c r="AJ17" s="101"/>
+      <c r="AK17" s="101"/>
+      <c r="AL17" s="102"/>
       <c r="AM17" s="1"/>
       <c r="AN17" s="1"/>
       <c r="AO17" s="14"/>
     </row>
-    <row r="18" spans="1:41" ht="20" customHeight="1">
-      <c r="A18" s="75"/>
-      <c r="B18" s="76"/>
-      <c r="C18" s="76"/>
-      <c r="D18" s="76"/>
-      <c r="E18" s="76"/>
-      <c r="F18" s="76"/>
-      <c r="G18" s="76"/>
+    <row r="18" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A18" s="99"/>
+      <c r="B18" s="100"/>
+      <c r="C18" s="100"/>
+      <c r="D18" s="100"/>
+      <c r="E18" s="100"/>
+      <c r="F18" s="100"/>
+      <c r="G18" s="100"/>
       <c r="H18" s="22"/>
       <c r="I18" s="25"/>
       <c r="J18" s="25"/>
@@ -5961,25 +6012,25 @@
       <c r="AC18" s="1"/>
       <c r="AD18" s="1"/>
       <c r="AE18" s="14"/>
-      <c r="AF18" s="70"/>
-      <c r="AG18" s="70"/>
-      <c r="AH18" s="70"/>
-      <c r="AI18" s="70"/>
-      <c r="AJ18" s="70"/>
-      <c r="AK18" s="70"/>
-      <c r="AL18" s="71"/>
+      <c r="AF18" s="101"/>
+      <c r="AG18" s="101"/>
+      <c r="AH18" s="101"/>
+      <c r="AI18" s="101"/>
+      <c r="AJ18" s="101"/>
+      <c r="AK18" s="101"/>
+      <c r="AL18" s="102"/>
       <c r="AM18" s="1"/>
       <c r="AN18" s="1"/>
       <c r="AO18" s="14"/>
     </row>
-    <row r="19" spans="1:41" ht="20" customHeight="1">
-      <c r="A19" s="69"/>
-      <c r="B19" s="70"/>
-      <c r="C19" s="70"/>
-      <c r="D19" s="70"/>
-      <c r="E19" s="70"/>
-      <c r="F19" s="70"/>
-      <c r="G19" s="70"/>
+    <row r="19" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="103"/>
+      <c r="B19" s="101"/>
+      <c r="C19" s="101"/>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
       <c r="H19" s="22"/>
       <c r="I19" s="25"/>
       <c r="J19" s="25"/>
@@ -6004,25 +6055,25 @@
       <c r="AC19" s="1"/>
       <c r="AD19" s="1"/>
       <c r="AE19" s="14"/>
-      <c r="AF19" s="70"/>
-      <c r="AG19" s="70"/>
-      <c r="AH19" s="70"/>
-      <c r="AI19" s="70"/>
-      <c r="AJ19" s="70"/>
-      <c r="AK19" s="70"/>
-      <c r="AL19" s="71"/>
+      <c r="AF19" s="101"/>
+      <c r="AG19" s="101"/>
+      <c r="AH19" s="101"/>
+      <c r="AI19" s="101"/>
+      <c r="AJ19" s="101"/>
+      <c r="AK19" s="101"/>
+      <c r="AL19" s="102"/>
       <c r="AM19" s="1"/>
       <c r="AN19" s="1"/>
       <c r="AO19" s="14"/>
     </row>
-    <row r="20" spans="1:41" ht="20" customHeight="1">
-      <c r="A20" s="69"/>
-      <c r="B20" s="70"/>
-      <c r="C20" s="70"/>
-      <c r="D20" s="70"/>
-      <c r="E20" s="70"/>
-      <c r="F20" s="70"/>
-      <c r="G20" s="70"/>
+    <row r="20" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="103"/>
+      <c r="B20" s="101"/>
+      <c r="C20" s="101"/>
+      <c r="D20" s="101"/>
+      <c r="E20" s="101"/>
+      <c r="F20" s="101"/>
+      <c r="G20" s="101"/>
       <c r="H20" s="22"/>
       <c r="I20" s="25"/>
       <c r="J20" s="25"/>
@@ -6047,25 +6098,25 @@
       <c r="AC20" s="1"/>
       <c r="AD20" s="1"/>
       <c r="AE20" s="14"/>
-      <c r="AF20" s="70"/>
-      <c r="AG20" s="70"/>
-      <c r="AH20" s="70"/>
-      <c r="AI20" s="70"/>
-      <c r="AJ20" s="70"/>
-      <c r="AK20" s="70"/>
-      <c r="AL20" s="71"/>
+      <c r="AF20" s="101"/>
+      <c r="AG20" s="101"/>
+      <c r="AH20" s="101"/>
+      <c r="AI20" s="101"/>
+      <c r="AJ20" s="101"/>
+      <c r="AK20" s="101"/>
+      <c r="AL20" s="102"/>
       <c r="AM20" s="1"/>
       <c r="AN20" s="1"/>
       <c r="AO20" s="14"/>
     </row>
-    <row r="21" spans="1:41" ht="20" customHeight="1">
-      <c r="A21" s="69"/>
-      <c r="B21" s="70"/>
-      <c r="C21" s="70"/>
-      <c r="D21" s="70"/>
-      <c r="E21" s="70"/>
-      <c r="F21" s="70"/>
-      <c r="G21" s="70"/>
+    <row r="21" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="103"/>
+      <c r="B21" s="101"/>
+      <c r="C21" s="101"/>
+      <c r="D21" s="101"/>
+      <c r="E21" s="101"/>
+      <c r="F21" s="101"/>
+      <c r="G21" s="101"/>
       <c r="H21" s="22"/>
       <c r="I21" s="1"/>
       <c r="J21" s="1"/>
@@ -6090,25 +6141,25 @@
       <c r="AC21" s="1"/>
       <c r="AD21" s="1"/>
       <c r="AE21" s="14"/>
-      <c r="AF21" s="70"/>
-      <c r="AG21" s="70"/>
-      <c r="AH21" s="70"/>
-      <c r="AI21" s="70"/>
-      <c r="AJ21" s="70"/>
-      <c r="AK21" s="70"/>
-      <c r="AL21" s="71"/>
+      <c r="AF21" s="101"/>
+      <c r="AG21" s="101"/>
+      <c r="AH21" s="101"/>
+      <c r="AI21" s="101"/>
+      <c r="AJ21" s="101"/>
+      <c r="AK21" s="101"/>
+      <c r="AL21" s="102"/>
       <c r="AM21" s="1"/>
       <c r="AN21" s="1"/>
       <c r="AO21" s="14"/>
     </row>
-    <row r="22" spans="1:41" ht="20" customHeight="1">
-      <c r="A22" s="69"/>
-      <c r="B22" s="70"/>
-      <c r="C22" s="70"/>
-      <c r="D22" s="70"/>
-      <c r="E22" s="70"/>
-      <c r="F22" s="70"/>
-      <c r="G22" s="70"/>
+    <row r="22" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="103"/>
+      <c r="B22" s="101"/>
+      <c r="C22" s="101"/>
+      <c r="D22" s="101"/>
+      <c r="E22" s="101"/>
+      <c r="F22" s="101"/>
+      <c r="G22" s="101"/>
       <c r="H22" s="22"/>
       <c r="I22" s="1"/>
       <c r="J22" s="1"/>
@@ -6133,25 +6184,25 @@
       <c r="AC22" s="1"/>
       <c r="AD22" s="1"/>
       <c r="AE22" s="14"/>
-      <c r="AF22" s="70"/>
-      <c r="AG22" s="70"/>
-      <c r="AH22" s="70"/>
-      <c r="AI22" s="70"/>
-      <c r="AJ22" s="70"/>
-      <c r="AK22" s="70"/>
-      <c r="AL22" s="71"/>
+      <c r="AF22" s="101"/>
+      <c r="AG22" s="101"/>
+      <c r="AH22" s="101"/>
+      <c r="AI22" s="101"/>
+      <c r="AJ22" s="101"/>
+      <c r="AK22" s="101"/>
+      <c r="AL22" s="102"/>
       <c r="AM22" s="1"/>
       <c r="AN22" s="1"/>
       <c r="AO22" s="14"/>
     </row>
-    <row r="23" spans="1:41" ht="20" customHeight="1">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
+    <row r="23" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="103"/>
+      <c r="B23" s="101"/>
+      <c r="C23" s="101"/>
+      <c r="D23" s="101"/>
+      <c r="E23" s="101"/>
+      <c r="F23" s="101"/>
+      <c r="G23" s="101"/>
       <c r="H23" s="22"/>
       <c r="I23" s="1"/>
       <c r="J23" s="1"/>
@@ -6176,25 +6227,25 @@
       <c r="AC23" s="1"/>
       <c r="AD23" s="1"/>
       <c r="AE23" s="14"/>
-      <c r="AF23" s="70"/>
-      <c r="AG23" s="70"/>
-      <c r="AH23" s="70"/>
-      <c r="AI23" s="70"/>
-      <c r="AJ23" s="70"/>
-      <c r="AK23" s="70"/>
-      <c r="AL23" s="71"/>
+      <c r="AF23" s="101"/>
+      <c r="AG23" s="101"/>
+      <c r="AH23" s="101"/>
+      <c r="AI23" s="101"/>
+      <c r="AJ23" s="101"/>
+      <c r="AK23" s="101"/>
+      <c r="AL23" s="102"/>
       <c r="AM23" s="1"/>
       <c r="AN23" s="1"/>
       <c r="AO23" s="14"/>
     </row>
-    <row r="24" spans="1:41" ht="20" customHeight="1">
-      <c r="A24" s="69"/>
-      <c r="B24" s="70"/>
-      <c r="C24" s="70"/>
-      <c r="D24" s="70"/>
-      <c r="E24" s="70"/>
-      <c r="F24" s="70"/>
-      <c r="G24" s="70"/>
+    <row r="24" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="103"/>
+      <c r="B24" s="101"/>
+      <c r="C24" s="101"/>
+      <c r="D24" s="101"/>
+      <c r="E24" s="101"/>
+      <c r="F24" s="101"/>
+      <c r="G24" s="101"/>
       <c r="H24" s="22"/>
       <c r="I24" s="1"/>
       <c r="J24" s="1"/>
@@ -6219,25 +6270,25 @@
       <c r="AC24" s="1"/>
       <c r="AD24" s="1"/>
       <c r="AE24" s="14"/>
-      <c r="AF24" s="70"/>
-      <c r="AG24" s="70"/>
-      <c r="AH24" s="70"/>
-      <c r="AI24" s="70"/>
-      <c r="AJ24" s="70"/>
-      <c r="AK24" s="70"/>
-      <c r="AL24" s="71"/>
+      <c r="AF24" s="101"/>
+      <c r="AG24" s="101"/>
+      <c r="AH24" s="101"/>
+      <c r="AI24" s="101"/>
+      <c r="AJ24" s="101"/>
+      <c r="AK24" s="101"/>
+      <c r="AL24" s="102"/>
       <c r="AM24" s="1"/>
       <c r="AN24" s="1"/>
       <c r="AO24" s="14"/>
     </row>
-    <row r="25" spans="1:41" ht="20" customHeight="1">
-      <c r="A25" s="69"/>
-      <c r="B25" s="70"/>
-      <c r="C25" s="70"/>
-      <c r="D25" s="70"/>
-      <c r="E25" s="70"/>
-      <c r="F25" s="70"/>
-      <c r="G25" s="70"/>
+    <row r="25" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="103"/>
+      <c r="B25" s="101"/>
+      <c r="C25" s="101"/>
+      <c r="D25" s="101"/>
+      <c r="E25" s="101"/>
+      <c r="F25" s="101"/>
+      <c r="G25" s="101"/>
       <c r="H25" s="22"/>
       <c r="I25" s="1"/>
       <c r="J25" s="1"/>
@@ -6262,25 +6313,25 @@
       <c r="AC25" s="1"/>
       <c r="AD25" s="1"/>
       <c r="AE25" s="14"/>
-      <c r="AF25" s="70"/>
-      <c r="AG25" s="70"/>
-      <c r="AH25" s="70"/>
-      <c r="AI25" s="70"/>
-      <c r="AJ25" s="70"/>
-      <c r="AK25" s="70"/>
-      <c r="AL25" s="71"/>
+      <c r="AF25" s="101"/>
+      <c r="AG25" s="101"/>
+      <c r="AH25" s="101"/>
+      <c r="AI25" s="101"/>
+      <c r="AJ25" s="101"/>
+      <c r="AK25" s="101"/>
+      <c r="AL25" s="102"/>
       <c r="AM25" s="1"/>
       <c r="AN25" s="1"/>
       <c r="AO25" s="14"/>
     </row>
-    <row r="26" spans="1:41" ht="20" customHeight="1">
-      <c r="A26" s="69"/>
-      <c r="B26" s="70"/>
-      <c r="C26" s="70"/>
-      <c r="D26" s="70"/>
-      <c r="E26" s="70"/>
-      <c r="F26" s="70"/>
-      <c r="G26" s="70"/>
+    <row r="26" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="103"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="101"/>
+      <c r="D26" s="101"/>
+      <c r="E26" s="101"/>
+      <c r="F26" s="101"/>
+      <c r="G26" s="101"/>
       <c r="H26" s="22"/>
       <c r="I26" s="1"/>
       <c r="J26" s="1"/>
@@ -6305,25 +6356,25 @@
       <c r="AC26" s="1"/>
       <c r="AD26" s="1"/>
       <c r="AE26" s="14"/>
-      <c r="AF26" s="70"/>
-      <c r="AG26" s="70"/>
-      <c r="AH26" s="70"/>
-      <c r="AI26" s="70"/>
-      <c r="AJ26" s="70"/>
-      <c r="AK26" s="70"/>
-      <c r="AL26" s="71"/>
+      <c r="AF26" s="101"/>
+      <c r="AG26" s="101"/>
+      <c r="AH26" s="101"/>
+      <c r="AI26" s="101"/>
+      <c r="AJ26" s="101"/>
+      <c r="AK26" s="101"/>
+      <c r="AL26" s="102"/>
       <c r="AM26" s="1"/>
       <c r="AN26" s="1"/>
       <c r="AO26" s="14"/>
     </row>
-    <row r="27" spans="1:41" ht="20" customHeight="1">
-      <c r="A27" s="69"/>
-      <c r="B27" s="70"/>
-      <c r="C27" s="70"/>
-      <c r="D27" s="70"/>
-      <c r="E27" s="70"/>
-      <c r="F27" s="70"/>
-      <c r="G27" s="70"/>
+    <row r="27" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A27" s="103"/>
+      <c r="B27" s="101"/>
+      <c r="C27" s="101"/>
+      <c r="D27" s="101"/>
+      <c r="E27" s="101"/>
+      <c r="F27" s="101"/>
+      <c r="G27" s="101"/>
       <c r="H27" s="22"/>
       <c r="I27" s="1"/>
       <c r="J27" s="1"/>
@@ -6348,25 +6399,25 @@
       <c r="AC27" s="1"/>
       <c r="AD27" s="1"/>
       <c r="AE27" s="14"/>
-      <c r="AF27" s="70"/>
-      <c r="AG27" s="70"/>
-      <c r="AH27" s="70"/>
-      <c r="AI27" s="70"/>
-      <c r="AJ27" s="70"/>
-      <c r="AK27" s="70"/>
-      <c r="AL27" s="71"/>
+      <c r="AF27" s="101"/>
+      <c r="AG27" s="101"/>
+      <c r="AH27" s="101"/>
+      <c r="AI27" s="101"/>
+      <c r="AJ27" s="101"/>
+      <c r="AK27" s="101"/>
+      <c r="AL27" s="102"/>
       <c r="AM27" s="1"/>
       <c r="AN27" s="1"/>
       <c r="AO27" s="14"/>
     </row>
-    <row r="28" spans="1:41" ht="20" customHeight="1">
-      <c r="A28" s="69"/>
-      <c r="B28" s="70"/>
-      <c r="C28" s="70"/>
-      <c r="D28" s="70"/>
-      <c r="E28" s="70"/>
-      <c r="F28" s="70"/>
-      <c r="G28" s="70"/>
+    <row r="28" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A28" s="103"/>
+      <c r="B28" s="101"/>
+      <c r="C28" s="101"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="101"/>
+      <c r="G28" s="101"/>
       <c r="H28" s="22"/>
       <c r="I28" s="1"/>
       <c r="J28" s="1"/>
@@ -6391,25 +6442,25 @@
       <c r="AC28" s="1"/>
       <c r="AD28" s="1"/>
       <c r="AE28" s="14"/>
-      <c r="AF28" s="70"/>
-      <c r="AG28" s="70"/>
-      <c r="AH28" s="70"/>
-      <c r="AI28" s="70"/>
-      <c r="AJ28" s="70"/>
-      <c r="AK28" s="70"/>
-      <c r="AL28" s="71"/>
+      <c r="AF28" s="101"/>
+      <c r="AG28" s="101"/>
+      <c r="AH28" s="101"/>
+      <c r="AI28" s="101"/>
+      <c r="AJ28" s="101"/>
+      <c r="AK28" s="101"/>
+      <c r="AL28" s="102"/>
       <c r="AM28" s="1"/>
       <c r="AN28" s="1"/>
       <c r="AO28" s="14"/>
     </row>
-    <row r="29" spans="1:41" ht="20" customHeight="1">
-      <c r="A29" s="69"/>
-      <c r="B29" s="70"/>
-      <c r="C29" s="70"/>
-      <c r="D29" s="70"/>
-      <c r="E29" s="70"/>
-      <c r="F29" s="70"/>
-      <c r="G29" s="70"/>
+    <row r="29" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A29" s="103"/>
+      <c r="B29" s="101"/>
+      <c r="C29" s="101"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
+      <c r="F29" s="101"/>
+      <c r="G29" s="101"/>
       <c r="H29" s="22"/>
       <c r="I29" s="1"/>
       <c r="J29" s="1"/>
@@ -6434,25 +6485,25 @@
       <c r="AC29" s="1"/>
       <c r="AD29" s="1"/>
       <c r="AE29" s="14"/>
-      <c r="AF29" s="70"/>
-      <c r="AG29" s="70"/>
-      <c r="AH29" s="70"/>
-      <c r="AI29" s="70"/>
-      <c r="AJ29" s="70"/>
-      <c r="AK29" s="70"/>
-      <c r="AL29" s="71"/>
+      <c r="AF29" s="101"/>
+      <c r="AG29" s="101"/>
+      <c r="AH29" s="101"/>
+      <c r="AI29" s="101"/>
+      <c r="AJ29" s="101"/>
+      <c r="AK29" s="101"/>
+      <c r="AL29" s="102"/>
       <c r="AM29" s="1"/>
       <c r="AN29" s="1"/>
       <c r="AO29" s="14"/>
     </row>
-    <row r="30" spans="1:41" ht="20" customHeight="1">
-      <c r="A30" s="69"/>
-      <c r="B30" s="70"/>
-      <c r="C30" s="70"/>
-      <c r="D30" s="70"/>
-      <c r="E30" s="70"/>
-      <c r="F30" s="70"/>
-      <c r="G30" s="70"/>
+    <row r="30" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A30" s="103"/>
+      <c r="B30" s="101"/>
+      <c r="C30" s="101"/>
+      <c r="D30" s="101"/>
+      <c r="E30" s="101"/>
+      <c r="F30" s="101"/>
+      <c r="G30" s="101"/>
       <c r="H30" s="22"/>
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
@@ -6477,25 +6528,25 @@
       <c r="AC30" s="1"/>
       <c r="AD30" s="1"/>
       <c r="AE30" s="14"/>
-      <c r="AF30" s="70"/>
-      <c r="AG30" s="70"/>
-      <c r="AH30" s="70"/>
-      <c r="AI30" s="70"/>
-      <c r="AJ30" s="70"/>
-      <c r="AK30" s="70"/>
-      <c r="AL30" s="71"/>
+      <c r="AF30" s="101"/>
+      <c r="AG30" s="101"/>
+      <c r="AH30" s="101"/>
+      <c r="AI30" s="101"/>
+      <c r="AJ30" s="101"/>
+      <c r="AK30" s="101"/>
+      <c r="AL30" s="102"/>
       <c r="AM30" s="1"/>
       <c r="AN30" s="1"/>
       <c r="AO30" s="14"/>
     </row>
-    <row r="31" spans="1:41" ht="20" customHeight="1">
-      <c r="A31" s="69"/>
-      <c r="B31" s="70"/>
-      <c r="C31" s="70"/>
-      <c r="D31" s="70"/>
-      <c r="E31" s="70"/>
-      <c r="F31" s="70"/>
-      <c r="G31" s="70"/>
+    <row r="31" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A31" s="103"/>
+      <c r="B31" s="101"/>
+      <c r="C31" s="101"/>
+      <c r="D31" s="101"/>
+      <c r="E31" s="101"/>
+      <c r="F31" s="101"/>
+      <c r="G31" s="101"/>
       <c r="H31" s="22"/>
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
@@ -6520,25 +6571,25 @@
       <c r="AC31" s="1"/>
       <c r="AD31" s="1"/>
       <c r="AE31" s="14"/>
-      <c r="AF31" s="70"/>
-      <c r="AG31" s="70"/>
-      <c r="AH31" s="70"/>
-      <c r="AI31" s="70"/>
-      <c r="AJ31" s="70"/>
-      <c r="AK31" s="70"/>
-      <c r="AL31" s="71"/>
+      <c r="AF31" s="101"/>
+      <c r="AG31" s="101"/>
+      <c r="AH31" s="101"/>
+      <c r="AI31" s="101"/>
+      <c r="AJ31" s="101"/>
+      <c r="AK31" s="101"/>
+      <c r="AL31" s="102"/>
       <c r="AM31" s="1"/>
       <c r="AN31" s="1"/>
       <c r="AO31" s="14"/>
     </row>
-    <row r="32" spans="1:41" ht="20" customHeight="1">
-      <c r="A32" s="69"/>
-      <c r="B32" s="70"/>
-      <c r="C32" s="70"/>
-      <c r="D32" s="70"/>
-      <c r="E32" s="70"/>
-      <c r="F32" s="70"/>
-      <c r="G32" s="70"/>
+    <row r="32" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A32" s="103"/>
+      <c r="B32" s="101"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
+      <c r="E32" s="101"/>
+      <c r="F32" s="101"/>
+      <c r="G32" s="101"/>
       <c r="H32" s="22"/>
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
@@ -6563,25 +6614,25 @@
       <c r="AC32" s="1"/>
       <c r="AD32" s="1"/>
       <c r="AE32" s="14"/>
-      <c r="AF32" s="70"/>
-      <c r="AG32" s="70"/>
-      <c r="AH32" s="70"/>
-      <c r="AI32" s="70"/>
-      <c r="AJ32" s="70"/>
-      <c r="AK32" s="70"/>
-      <c r="AL32" s="71"/>
+      <c r="AF32" s="101"/>
+      <c r="AG32" s="101"/>
+      <c r="AH32" s="101"/>
+      <c r="AI32" s="101"/>
+      <c r="AJ32" s="101"/>
+      <c r="AK32" s="101"/>
+      <c r="AL32" s="102"/>
       <c r="AM32" s="1"/>
       <c r="AN32" s="1"/>
       <c r="AO32" s="14"/>
     </row>
-    <row r="33" spans="1:41" ht="20" customHeight="1">
-      <c r="A33" s="69"/>
-      <c r="B33" s="70"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="70"/>
-      <c r="F33" s="70"/>
-      <c r="G33" s="70"/>
+    <row r="33" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A33" s="103"/>
+      <c r="B33" s="101"/>
+      <c r="C33" s="101"/>
+      <c r="D33" s="101"/>
+      <c r="E33" s="101"/>
+      <c r="F33" s="101"/>
+      <c r="G33" s="101"/>
       <c r="H33" s="22"/>
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
@@ -6606,25 +6657,25 @@
       <c r="AC33" s="1"/>
       <c r="AD33" s="1"/>
       <c r="AE33" s="14"/>
-      <c r="AF33" s="70"/>
-      <c r="AG33" s="70"/>
-      <c r="AH33" s="70"/>
-      <c r="AI33" s="70"/>
-      <c r="AJ33" s="70"/>
-      <c r="AK33" s="70"/>
-      <c r="AL33" s="71"/>
+      <c r="AF33" s="101"/>
+      <c r="AG33" s="101"/>
+      <c r="AH33" s="101"/>
+      <c r="AI33" s="101"/>
+      <c r="AJ33" s="101"/>
+      <c r="AK33" s="101"/>
+      <c r="AL33" s="102"/>
       <c r="AM33" s="1"/>
       <c r="AN33" s="1"/>
       <c r="AO33" s="14"/>
     </row>
-    <row r="34" spans="1:41" ht="20" customHeight="1">
-      <c r="A34" s="69"/>
-      <c r="B34" s="70"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="70"/>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
+    <row r="34" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A34" s="103"/>
+      <c r="B34" s="101"/>
+      <c r="C34" s="101"/>
+      <c r="D34" s="101"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="101"/>
+      <c r="G34" s="101"/>
       <c r="H34" s="22"/>
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
@@ -6649,25 +6700,25 @@
       <c r="AC34" s="1"/>
       <c r="AD34" s="1"/>
       <c r="AE34" s="14"/>
-      <c r="AF34" s="70"/>
-      <c r="AG34" s="70"/>
-      <c r="AH34" s="70"/>
-      <c r="AI34" s="70"/>
-      <c r="AJ34" s="70"/>
-      <c r="AK34" s="70"/>
-      <c r="AL34" s="71"/>
+      <c r="AF34" s="101"/>
+      <c r="AG34" s="101"/>
+      <c r="AH34" s="101"/>
+      <c r="AI34" s="101"/>
+      <c r="AJ34" s="101"/>
+      <c r="AK34" s="101"/>
+      <c r="AL34" s="102"/>
       <c r="AM34" s="1"/>
       <c r="AN34" s="1"/>
       <c r="AO34" s="14"/>
     </row>
-    <row r="35" spans="1:41" ht="20" customHeight="1">
-      <c r="A35" s="72"/>
-      <c r="B35" s="73"/>
-      <c r="C35" s="73"/>
-      <c r="D35" s="73"/>
-      <c r="E35" s="73"/>
-      <c r="F35" s="73"/>
-      <c r="G35" s="73"/>
+    <row r="35" spans="1:41" ht="19.95" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A35" s="81"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="82"/>
+      <c r="E35" s="82"/>
+      <c r="F35" s="82"/>
+      <c r="G35" s="82"/>
       <c r="H35" s="23"/>
       <c r="I35" s="15"/>
       <c r="J35" s="15"/>
@@ -6692,25 +6743,85 @@
       <c r="AC35" s="15"/>
       <c r="AD35" s="15"/>
       <c r="AE35" s="16"/>
-      <c r="AF35" s="73"/>
-      <c r="AG35" s="73"/>
-      <c r="AH35" s="73"/>
-      <c r="AI35" s="73"/>
-      <c r="AJ35" s="73"/>
-      <c r="AK35" s="73"/>
-      <c r="AL35" s="74"/>
+      <c r="AF35" s="82"/>
+      <c r="AG35" s="82"/>
+      <c r="AH35" s="82"/>
+      <c r="AI35" s="82"/>
+      <c r="AJ35" s="82"/>
+      <c r="AK35" s="82"/>
+      <c r="AL35" s="83"/>
       <c r="AM35" s="15"/>
       <c r="AN35" s="15"/>
       <c r="AO35" s="16"/>
     </row>
   </sheetData>
   <mergeCells count="83">
-    <mergeCell ref="A1:N4"/>
-    <mergeCell ref="O1:S1"/>
-    <mergeCell ref="T1:AA1"/>
-    <mergeCell ref="AB1:AD2"/>
-    <mergeCell ref="AE1:AH2"/>
-    <mergeCell ref="T4:AA4"/>
+    <mergeCell ref="A33:G33"/>
+    <mergeCell ref="AF33:AL33"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="AF34:AL34"/>
+    <mergeCell ref="A35:G35"/>
+    <mergeCell ref="AF35:AL35"/>
+    <mergeCell ref="A30:G30"/>
+    <mergeCell ref="AF30:AL30"/>
+    <mergeCell ref="A31:G31"/>
+    <mergeCell ref="AF31:AL31"/>
+    <mergeCell ref="A32:G32"/>
+    <mergeCell ref="AF32:AL32"/>
+    <mergeCell ref="A27:G27"/>
+    <mergeCell ref="AF27:AL27"/>
+    <mergeCell ref="A28:G28"/>
+    <mergeCell ref="AF28:AL28"/>
+    <mergeCell ref="A29:G29"/>
+    <mergeCell ref="AF29:AL29"/>
+    <mergeCell ref="A24:G24"/>
+    <mergeCell ref="AF24:AL24"/>
+    <mergeCell ref="A25:G25"/>
+    <mergeCell ref="AF25:AL25"/>
+    <mergeCell ref="A26:G26"/>
+    <mergeCell ref="AF26:AL26"/>
+    <mergeCell ref="A21:G21"/>
+    <mergeCell ref="AF21:AL21"/>
+    <mergeCell ref="A22:G22"/>
+    <mergeCell ref="AF22:AL22"/>
+    <mergeCell ref="A23:G23"/>
+    <mergeCell ref="AF23:AL23"/>
+    <mergeCell ref="A18:G18"/>
+    <mergeCell ref="AF18:AL18"/>
+    <mergeCell ref="A19:G19"/>
+    <mergeCell ref="AF19:AL19"/>
+    <mergeCell ref="A20:G20"/>
+    <mergeCell ref="AF20:AL20"/>
+    <mergeCell ref="A15:G15"/>
+    <mergeCell ref="AF15:AL15"/>
+    <mergeCell ref="A16:G16"/>
+    <mergeCell ref="AF16:AL16"/>
+    <mergeCell ref="A17:G17"/>
+    <mergeCell ref="AF17:AL17"/>
+    <mergeCell ref="A12:G12"/>
+    <mergeCell ref="AF12:AL12"/>
+    <mergeCell ref="A13:G13"/>
+    <mergeCell ref="AF13:AL13"/>
+    <mergeCell ref="A14:G14"/>
+    <mergeCell ref="AF14:AL14"/>
+    <mergeCell ref="A9:G9"/>
+    <mergeCell ref="AF9:AL9"/>
+    <mergeCell ref="A10:G10"/>
+    <mergeCell ref="AF10:AL10"/>
+    <mergeCell ref="A11:G11"/>
+    <mergeCell ref="AF11:AL11"/>
+    <mergeCell ref="AF6:AL6"/>
+    <mergeCell ref="AM6:AO6"/>
+    <mergeCell ref="A7:G7"/>
+    <mergeCell ref="AF7:AL7"/>
+    <mergeCell ref="A8:G8"/>
+    <mergeCell ref="AF8:AL8"/>
+    <mergeCell ref="A5:C5"/>
+    <mergeCell ref="D5:F5"/>
+    <mergeCell ref="G5:I5"/>
+    <mergeCell ref="J5:N5"/>
+    <mergeCell ref="A6:G6"/>
+    <mergeCell ref="H6:AE6"/>
     <mergeCell ref="AL1:AO2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="T2:AA2"/>
@@ -6722,75 +6833,15 @@
     <mergeCell ref="AL3:AO4"/>
     <mergeCell ref="O4:S4"/>
     <mergeCell ref="AI1:AK2"/>
-    <mergeCell ref="A5:C5"/>
-    <mergeCell ref="D5:F5"/>
-    <mergeCell ref="G5:I5"/>
-    <mergeCell ref="J5:N5"/>
-    <mergeCell ref="A6:G6"/>
-    <mergeCell ref="H6:AE6"/>
-    <mergeCell ref="AF6:AL6"/>
-    <mergeCell ref="AM6:AO6"/>
-    <mergeCell ref="A7:G7"/>
-    <mergeCell ref="AF7:AL7"/>
-    <mergeCell ref="A8:G8"/>
-    <mergeCell ref="AF8:AL8"/>
-    <mergeCell ref="A9:G9"/>
-    <mergeCell ref="AF9:AL9"/>
-    <mergeCell ref="A10:G10"/>
-    <mergeCell ref="AF10:AL10"/>
-    <mergeCell ref="A11:G11"/>
-    <mergeCell ref="AF11:AL11"/>
-    <mergeCell ref="A12:G12"/>
-    <mergeCell ref="AF12:AL12"/>
-    <mergeCell ref="A13:G13"/>
-    <mergeCell ref="AF13:AL13"/>
-    <mergeCell ref="A14:G14"/>
-    <mergeCell ref="AF14:AL14"/>
-    <mergeCell ref="A15:G15"/>
-    <mergeCell ref="AF15:AL15"/>
-    <mergeCell ref="A16:G16"/>
-    <mergeCell ref="AF16:AL16"/>
-    <mergeCell ref="A17:G17"/>
-    <mergeCell ref="AF17:AL17"/>
-    <mergeCell ref="A18:G18"/>
-    <mergeCell ref="AF18:AL18"/>
-    <mergeCell ref="A19:G19"/>
-    <mergeCell ref="AF19:AL19"/>
-    <mergeCell ref="A20:G20"/>
-    <mergeCell ref="AF20:AL20"/>
-    <mergeCell ref="A21:G21"/>
-    <mergeCell ref="AF21:AL21"/>
-    <mergeCell ref="A22:G22"/>
-    <mergeCell ref="AF22:AL22"/>
-    <mergeCell ref="A23:G23"/>
-    <mergeCell ref="AF23:AL23"/>
-    <mergeCell ref="A24:G24"/>
-    <mergeCell ref="AF24:AL24"/>
-    <mergeCell ref="A25:G25"/>
-    <mergeCell ref="AF25:AL25"/>
-    <mergeCell ref="A26:G26"/>
-    <mergeCell ref="AF26:AL26"/>
-    <mergeCell ref="A27:G27"/>
-    <mergeCell ref="AF27:AL27"/>
-    <mergeCell ref="A28:G28"/>
-    <mergeCell ref="AF28:AL28"/>
-    <mergeCell ref="A29:G29"/>
-    <mergeCell ref="AF29:AL29"/>
-    <mergeCell ref="A30:G30"/>
-    <mergeCell ref="AF30:AL30"/>
-    <mergeCell ref="A31:G31"/>
-    <mergeCell ref="AF31:AL31"/>
-    <mergeCell ref="A32:G32"/>
-    <mergeCell ref="AF32:AL32"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="AF33:AL33"/>
-    <mergeCell ref="A34:G34"/>
-    <mergeCell ref="AF34:AL34"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="AF35:AL35"/>
+    <mergeCell ref="A1:N4"/>
+    <mergeCell ref="O1:S1"/>
+    <mergeCell ref="T1:AA1"/>
+    <mergeCell ref="AB1:AD2"/>
+    <mergeCell ref="AE1:AH2"/>
+    <mergeCell ref="T4:AA4"/>
   </mergeCells>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" scale="46" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup paperSize="9" scale="46" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>